--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>580253.906713116</v>
+        <v>575729.0899453434</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5155863.301161092</v>
+        <v>5155863.301161093</v>
       </c>
     </row>
     <row r="11">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8.979937655612986</v>
+        <v>7.966354006962826</v>
       </c>
       <c r="E8" t="n">
         <v>8.979937655612986</v>
       </c>
       <c r="F8" t="n">
-        <v>6.589215195280041</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="G8" t="n">
         <v>0.03641654712531528</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1235,7 +1235,7 @@
         <v>8.979937655612986</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>4.343417156711503</v>
       </c>
       <c r="V9" t="n">
-        <v>2.86918339893104</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>398.3479122562093</v>
       </c>
       <c r="H11" t="n">
-        <v>195.7431201755611</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T11" t="n">
         <v>210.1899979022025</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.8713590902432</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5903374607446</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.49640477633768</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.283593805241864</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>79.52631503743021</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1728815737559</v>
+        <v>204.8173543459298</v>
       </c>
       <c r="U13" t="n">
         <v>277.3349477671762</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>131.5569101921817</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.9390508903246</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.1899979022025</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6155395471329</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.4952874705361</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>61.15365165657687</v>
+        <v>61.15365165657686</v>
       </c>
       <c r="T15" t="n">
         <v>136.2605678234919</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>66.14151332261642</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>150.1983843255676</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5903374607446</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.49640477633768</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.283593805241864</v>
+        <v>7.283593805241857</v>
       </c>
       <c r="S16" t="n">
-        <v>153.2075259225883</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1728815737559</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3349477671762</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1852,10 +1852,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>370.1924118842214</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>17.12212162033524</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>177.960471652573</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7207021374627</v>
       </c>
       <c r="H19" t="n">
-        <v>79.46934720795458</v>
+        <v>134.5903374607446</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.49640477633768</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.283593805241871</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S19" t="n">
-        <v>153.2075259225883</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1728815737559</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3349477671762</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>207.1371613661054</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.94220245167</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1899979022025</v>
       </c>
       <c r="U20" t="n">
         <v>255.6155395471329</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>10.66152934765</v>
       </c>
     </row>
     <row r="21">
@@ -2241,16 +2241,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.7207021374627</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.283593805241871</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>69.3658774256656</v>
+        <v>131.8712939150125</v>
       </c>
       <c r="U22" t="n">
         <v>277.3349477671762</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>142.1308206707746</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>81.80591605808846</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.94220245167</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.93905089032461</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6155395471329</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>55.75116197168462</v>
+        <v>163.7207021374627</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.50584492345533</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.283593805241871</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.2075259225883</v>
@@ -2532,7 +2532,7 @@
         <v>237.1728815737559</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3349477671762</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2560,7 +2560,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>323.4537067380163</v>
+        <v>402.0825807561034</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.93905089032461</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1899979022025</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6155395471329</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2718,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.283593805241871</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.2075259225883</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1728815737559</v>
+        <v>221.7529849065272</v>
       </c>
       <c r="U28" t="n">
         <v>277.3349477671762</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>55.7511619716842</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>282.8078572040596</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2803,7 +2803,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.93905089032461</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T29" t="n">
-        <v>210.1899979022025</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>85.88800045042017</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>147.5493470174018</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.283593805241871</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.2075259225883</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1728815737559</v>
+        <v>135.6615135620081</v>
       </c>
       <c r="U31" t="n">
         <v>277.3349477671762</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>282.8078572040591</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3479122562093</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>264.6543319028643</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.93905089032461</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1899979022025</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6155395471329</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.283593805241871</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>153.2075259225883</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>222.3887415577494</v>
       </c>
       <c r="U34" t="n">
         <v>277.3349477671762</v>
       </c>
       <c r="V34" t="n">
-        <v>275.6268735446016</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>58.23825606768107</v>
+        <v>398.3479122562093</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.94220245167</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.93905089032461</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1899979022025</v>
       </c>
       <c r="U35" t="n">
         <v>255.6155395471329</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>12.93457389715279</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.49640477633768</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.283593805241871</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S37" t="n">
-        <v>153.2075259225883</v>
+        <v>125.0373557643506</v>
       </c>
       <c r="T37" t="n">
-        <v>214.4693911012847</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3349477671762</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3479122562093</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.93905089032461</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6155395471329</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>83.36629695943185</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>286.2176711622946</v>
       </c>
     </row>
     <row r="39">
@@ -3672,7 +3672,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.283593805241871</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S40" t="n">
-        <v>153.2075259225883</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1728815737559</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3349477671762</v>
+        <v>190.3604505189879</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>115.284378810165</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>382.8919635539872</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>73.56043246040845</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.3479122562093</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.93905089032461</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6155395471329</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>119.1605449952538</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.7207021374627</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5903374607446</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.49640477633768</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.283593805241871</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S43" t="n">
         <v>153.2075259225883</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1728815737559</v>
       </c>
       <c r="U43" t="n">
-        <v>126.7036081951141</v>
+        <v>277.3349477671762</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3979,16 +3979,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>335.0964480610937</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.93905089032461</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>289.7896992422777</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7207021374627</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5903374607446</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>72.49640477633768</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.283593805241871</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>153.2075259225883</v>
@@ -4191,19 +4191,19 @@
         <v>237.1728815737559</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3349477671762</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>180.3015163622947</v>
+        <v>203.2508012921518</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.55224052116755</v>
+        <v>26.94328982589764</v>
       </c>
       <c r="C8" t="n">
-        <v>25.55224052116755</v>
+        <v>26.94328982589764</v>
       </c>
       <c r="D8" t="n">
-        <v>16.48159642458878</v>
+        <v>18.89646759664226</v>
       </c>
       <c r="E8" t="n">
-        <v>7.410952328010005</v>
+        <v>9.825823500063485</v>
       </c>
       <c r="F8" t="n">
         <v>0.7551794034847109</v>
@@ -4804,25 +4804,25 @@
         <v>0.7183950124490389</v>
       </c>
       <c r="J8" t="n">
-        <v>9.608533291505895</v>
+        <v>1.326601820302672</v>
       </c>
       <c r="K8" t="n">
-        <v>10.21674009935953</v>
+        <v>1.326601820302672</v>
       </c>
       <c r="L8" t="n">
-        <v>12.79111505834535</v>
+        <v>3.900976779288493</v>
       </c>
       <c r="M8" t="n">
+        <v>11.91174853477717</v>
+      </c>
+      <c r="N8" t="n">
         <v>20.80188681383403</v>
       </c>
-      <c r="N8" t="n">
-        <v>29.69202509289089</v>
-      </c>
       <c r="O8" t="n">
-        <v>35.91975062245194</v>
+        <v>27.02961234339509</v>
       </c>
       <c r="P8" t="n">
-        <v>35.91975062245194</v>
+        <v>27.02961234339509</v>
       </c>
       <c r="Q8" t="n">
         <v>35.91975062245194</v>
@@ -4846,10 +4846,10 @@
         <v>35.91975062245194</v>
       </c>
       <c r="X8" t="n">
-        <v>35.91975062245194</v>
+        <v>28.24015583060325</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.62288461774633</v>
+        <v>26.94328982589764</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="C9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="D9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="E9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="F9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="G9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="H9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7183950124490389</v>
+        <v>8.29991410116876</v>
       </c>
       <c r="J9" t="n">
         <v>0.7183950124490389</v>
@@ -4913,22 +4913,22 @@
         <v>21.75784825503188</v>
       </c>
       <c r="T9" t="n">
-        <v>12.68720415845311</v>
+        <v>21.75784825503188</v>
       </c>
       <c r="U9" t="n">
-        <v>12.68720415845311</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="V9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="W9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="X9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.789039109027813</v>
+        <v>17.37055819774753</v>
       </c>
     </row>
     <row r="10">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1067.83406261015</v>
+        <v>444.1367993483495</v>
       </c>
       <c r="C11" t="n">
-        <v>1067.83406261015</v>
+        <v>444.1367993483495</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.83406261015</v>
+        <v>444.1367993483495</v>
       </c>
       <c r="E11" t="n">
-        <v>641.8571227580072</v>
+        <v>444.1367993483495</v>
       </c>
       <c r="F11" t="n">
-        <v>641.8571227580072</v>
+        <v>444.1367993483495</v>
       </c>
       <c r="G11" t="n">
-        <v>239.4854942163817</v>
+        <v>41.765170806724</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76517080672399</v>
+        <v>41.765170806724</v>
       </c>
       <c r="I11" t="n">
-        <v>81.90283658475198</v>
+        <v>81.90283658475164</v>
       </c>
       <c r="J11" t="n">
-        <v>216.4375955691453</v>
+        <v>216.437595569145</v>
       </c>
       <c r="K11" t="n">
-        <v>426.3153339631738</v>
+        <v>426.3153339631735</v>
       </c>
       <c r="L11" t="n">
-        <v>692.6837634020103</v>
+        <v>692.68376340201</v>
       </c>
       <c r="M11" t="n">
-        <v>994.2162484390919</v>
+        <v>994.2162484390922</v>
       </c>
       <c r="N11" t="n">
         <v>1301.377588188142</v>
       </c>
       <c r="O11" t="n">
-        <v>1589.254351290327</v>
+        <v>1589.254351290328</v>
       </c>
       <c r="P11" t="n">
-        <v>1829.344095694159</v>
+        <v>1829.34409569416</v>
       </c>
       <c r="Q11" t="n">
         <v>2001.813423636736</v>
@@ -5068,25 +5068,25 @@
         <v>2088.2585403362</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.2585403362</v>
+        <v>2028.724145497488</v>
       </c>
       <c r="T11" t="n">
-        <v>1875.945411142055</v>
+        <v>1816.411016303344</v>
       </c>
       <c r="U11" t="n">
-        <v>1875.945411142055</v>
+        <v>1816.411016303344</v>
       </c>
       <c r="V11" t="n">
-        <v>1875.945411142055</v>
+        <v>1672.096512171785</v>
       </c>
       <c r="W11" t="n">
-        <v>1479.554061442402</v>
+        <v>1275.705162472132</v>
       </c>
       <c r="X11" t="n">
-        <v>1067.83406261015</v>
+        <v>863.9851636398796</v>
       </c>
       <c r="Y11" t="n">
-        <v>1067.83406261015</v>
+        <v>863.9851636398796</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>84.97468873196664</v>
       </c>
       <c r="H12" t="n">
-        <v>41.76517080672399</v>
+        <v>41.765170806724</v>
       </c>
       <c r="I12" t="n">
-        <v>61.27650821499645</v>
+        <v>84.7338140594083</v>
       </c>
       <c r="J12" t="n">
-        <v>430.4490813498142</v>
+        <v>330.2167496787522</v>
       </c>
       <c r="K12" t="n">
-        <v>574.8742837663262</v>
+        <v>474.6419520952643</v>
       </c>
       <c r="L12" t="n">
-        <v>776.5992045300276</v>
+        <v>676.3668728589656</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.148163389437</v>
+        <v>914.9158317183756</v>
       </c>
       <c r="N12" t="n">
-        <v>1262.352208164084</v>
+        <v>1162.119876493022</v>
       </c>
       <c r="O12" t="n">
-        <v>1484.884897182846</v>
+        <v>1384.652565511785</v>
       </c>
       <c r="P12" t="n">
-        <v>1660.345375684289</v>
+        <v>1560.113044013227</v>
       </c>
       <c r="Q12" t="n">
-        <v>1769.524189493186</v>
+        <v>1669.291857822125</v>
       </c>
       <c r="R12" t="n">
         <v>1815.368420915258</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.3030143858277</v>
+        <v>385.5995081532476</v>
       </c>
       <c r="C13" t="n">
-        <v>752.3304512647437</v>
+        <v>213.6269450321636</v>
       </c>
       <c r="D13" t="n">
-        <v>589.0136783915144</v>
+        <v>213.6269450321636</v>
       </c>
       <c r="E13" t="n">
-        <v>422.8054725443679</v>
+        <v>213.6269450321636</v>
       </c>
       <c r="F13" t="n">
-        <v>250.9436983189284</v>
+        <v>41.765170806724</v>
       </c>
       <c r="G13" t="n">
-        <v>250.9436983189284</v>
+        <v>41.765170806724</v>
       </c>
       <c r="H13" t="n">
-        <v>114.9938624999944</v>
+        <v>41.765170806724</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76517080672399</v>
+        <v>41.765170806724</v>
       </c>
       <c r="J13" t="n">
-        <v>82.48751748488888</v>
+        <v>160.4092341331097</v>
       </c>
       <c r="K13" t="n">
-        <v>409.5078478416159</v>
+        <v>487.4295644898368</v>
       </c>
       <c r="L13" t="n">
-        <v>892.7932640134743</v>
+        <v>942.2464477247638</v>
       </c>
       <c r="M13" t="n">
-        <v>1409.637252746684</v>
+        <v>1055.483313777482</v>
       </c>
       <c r="N13" t="n">
-        <v>1521.458447181225</v>
+        <v>1167.304508212023</v>
       </c>
       <c r="O13" t="n">
-        <v>1957.747131984502</v>
+        <v>1644.990927411195</v>
       </c>
       <c r="P13" t="n">
-        <v>2040.203227644788</v>
+        <v>2040.203227644789</v>
       </c>
       <c r="Q13" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="R13" t="n">
-        <v>2080.901374876359</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="S13" t="n">
-        <v>2000.57176372744</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="T13" t="n">
-        <v>1761.003196481221</v>
+        <v>1881.37232382516</v>
       </c>
       <c r="U13" t="n">
-        <v>1480.866885605286</v>
+        <v>1601.236012949224</v>
       </c>
       <c r="V13" t="n">
-        <v>1199.155418213315</v>
+        <v>1319.524545557253</v>
       </c>
       <c r="W13" t="n">
-        <v>924.3030143858277</v>
+        <v>1044.672141729766</v>
       </c>
       <c r="X13" t="n">
-        <v>924.3030143858277</v>
+        <v>802.1082451755713</v>
       </c>
       <c r="Y13" t="n">
-        <v>924.3030143858277</v>
+        <v>575.7654768653133</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>893.7900826040236</v>
+        <v>1875.945411142056</v>
       </c>
       <c r="C14" t="n">
-        <v>466.8893526173238</v>
+        <v>1449.044681155357</v>
       </c>
       <c r="D14" t="n">
-        <v>466.8893526173238</v>
+        <v>1025.752060340357</v>
       </c>
       <c r="E14" t="n">
-        <v>466.8893526173238</v>
+        <v>599.7751204882144</v>
       </c>
       <c r="F14" t="n">
-        <v>41.765170806724</v>
+        <v>174.6509386776146</v>
       </c>
       <c r="G14" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H14" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I14" t="n">
-        <v>81.90283658475164</v>
+        <v>81.90283658475209</v>
       </c>
       <c r="J14" t="n">
-        <v>216.4375955691448</v>
+        <v>216.4375955691455</v>
       </c>
       <c r="K14" t="n">
-        <v>426.3153339631733</v>
+        <v>426.3153339631741</v>
       </c>
       <c r="L14" t="n">
-        <v>692.6837634020097</v>
+        <v>692.6837634020105</v>
       </c>
       <c r="M14" t="n">
-        <v>994.2162484390919</v>
+        <v>994.2162484390925</v>
       </c>
       <c r="N14" t="n">
-        <v>1301.377588188142</v>
+        <v>1301.377588188143</v>
       </c>
       <c r="O14" t="n">
         <v>1589.254351290328</v>
       </c>
       <c r="P14" t="n">
-        <v>1829.344095694159</v>
+        <v>1829.34409569416</v>
       </c>
       <c r="Q14" t="n">
-        <v>2001.813423636736</v>
+        <v>2001.813423636737</v>
       </c>
       <c r="R14" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="S14" t="n">
-        <v>2028.724145497488</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="T14" t="n">
-        <v>1816.411016303344</v>
+        <v>1875.945411142056</v>
       </c>
       <c r="U14" t="n">
-        <v>1558.213501609271</v>
+        <v>1875.945411142056</v>
       </c>
       <c r="V14" t="n">
-        <v>1558.213501609271</v>
+        <v>1875.945411142056</v>
       </c>
       <c r="W14" t="n">
-        <v>1299.127352649133</v>
+        <v>1875.945411142056</v>
       </c>
       <c r="X14" t="n">
-        <v>1299.127352649133</v>
+        <v>1875.945411142056</v>
       </c>
       <c r="Y14" t="n">
-        <v>893.7900826040236</v>
+        <v>1875.945411142056</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>84.97468873196664</v>
       </c>
       <c r="H15" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I15" t="n">
-        <v>61.27650821499645</v>
+        <v>84.7338140594083</v>
       </c>
       <c r="J15" t="n">
-        <v>138.3465888802231</v>
+        <v>330.216749678752</v>
       </c>
       <c r="K15" t="n">
-        <v>282.7717912967352</v>
+        <v>474.6419520952641</v>
       </c>
       <c r="L15" t="n">
-        <v>484.4967120604365</v>
+        <v>676.3668728589655</v>
       </c>
       <c r="M15" t="n">
-        <v>723.0456709198463</v>
+        <v>914.9158317183754</v>
       </c>
       <c r="N15" t="n">
-        <v>970.249715694493</v>
+        <v>1162.119876493022</v>
       </c>
       <c r="O15" t="n">
-        <v>1487.093704427703</v>
+        <v>1384.652565511785</v>
       </c>
       <c r="P15" t="n">
-        <v>1662.554182929145</v>
+        <v>1560.113044013227</v>
       </c>
       <c r="Q15" t="n">
-        <v>1774.747358107031</v>
+        <v>1669.291857822125</v>
       </c>
       <c r="R15" t="n">
         <v>1815.368420915258</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.8232878082987</v>
+        <v>866.840026596419</v>
       </c>
       <c r="C16" t="n">
-        <v>655.8232878082987</v>
+        <v>694.8674634753349</v>
       </c>
       <c r="D16" t="n">
-        <v>589.0136783915144</v>
+        <v>531.5506906021056</v>
       </c>
       <c r="E16" t="n">
-        <v>422.8054725443679</v>
+        <v>365.3424847549592</v>
       </c>
       <c r="F16" t="n">
-        <v>250.9436983189284</v>
+        <v>193.4807105295196</v>
       </c>
       <c r="G16" t="n">
-        <v>250.9436983189284</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H16" t="n">
-        <v>114.9938624999944</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I16" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="J16" t="n">
-        <v>160.4092341331097</v>
+        <v>160.4092341331098</v>
       </c>
       <c r="K16" t="n">
-        <v>240.1469553758147</v>
+        <v>487.4295644898368</v>
       </c>
       <c r="L16" t="n">
-        <v>723.4323715476733</v>
+        <v>942.2464477247643</v>
       </c>
       <c r="M16" t="n">
-        <v>1240.276360280883</v>
+        <v>1055.483313777482</v>
       </c>
       <c r="N16" t="n">
-        <v>1352.097554715424</v>
+        <v>1167.304508212024</v>
       </c>
       <c r="O16" t="n">
-        <v>1829.783973914595</v>
+        <v>1644.990927411195</v>
       </c>
       <c r="P16" t="n">
         <v>2040.203227644789</v>
@@ -5463,25 +5463,25 @@
         <v>2080.90137487636</v>
       </c>
       <c r="S16" t="n">
-        <v>1926.146298186876</v>
+        <v>2080.90137487636</v>
       </c>
       <c r="T16" t="n">
-        <v>1686.577730940658</v>
+        <v>2080.90137487636</v>
       </c>
       <c r="U16" t="n">
-        <v>1406.441420064723</v>
+        <v>1800.765064000424</v>
       </c>
       <c r="V16" t="n">
-        <v>1124.729952672752</v>
+        <v>1800.765064000424</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.729952672752</v>
+        <v>1525.912660172937</v>
       </c>
       <c r="X16" t="n">
-        <v>882.1660561185566</v>
+        <v>1283.348763618743</v>
       </c>
       <c r="Y16" t="n">
-        <v>655.8232878082987</v>
+        <v>1057.005995308485</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1317.082703419023</v>
+        <v>1691.867190636547</v>
       </c>
       <c r="C17" t="n">
-        <v>890.1819734323235</v>
+        <v>1264.966460649847</v>
       </c>
       <c r="D17" t="n">
-        <v>466.8893526173238</v>
+        <v>841.6738398348477</v>
       </c>
       <c r="E17" t="n">
-        <v>466.8893526173238</v>
+        <v>415.6968999827053</v>
       </c>
       <c r="F17" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="G17" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H17" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I17" t="n">
         <v>81.90283658475187</v>
       </c>
       <c r="J17" t="n">
-        <v>216.4375955691453</v>
+        <v>216.4375955691451</v>
       </c>
       <c r="K17" t="n">
         <v>426.3153339631738</v>
@@ -5524,10 +5524,10 @@
         <v>692.6837634020103</v>
       </c>
       <c r="M17" t="n">
-        <v>994.2162484390924</v>
+        <v>994.2162484390926</v>
       </c>
       <c r="N17" t="n">
-        <v>1301.377588188142</v>
+        <v>1301.377588188143</v>
       </c>
       <c r="O17" t="n">
         <v>1589.254351290328</v>
@@ -5536,7 +5536,7 @@
         <v>1829.34409569416</v>
       </c>
       <c r="Q17" t="n">
-        <v>2001.813423636736</v>
+        <v>2001.813423636737</v>
       </c>
       <c r="R17" t="n">
         <v>2088.2585403362</v>
@@ -5548,19 +5548,19 @@
         <v>2088.2585403362</v>
       </c>
       <c r="U17" t="n">
-        <v>2070.963467992427</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="V17" t="n">
-        <v>1713.474053118676</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="W17" t="n">
-        <v>1317.082703419023</v>
+        <v>1691.867190636547</v>
       </c>
       <c r="X17" t="n">
-        <v>1317.082703419023</v>
+        <v>1691.867190636547</v>
       </c>
       <c r="Y17" t="n">
-        <v>1317.082703419023</v>
+        <v>1691.867190636547</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>177.9757905910029</v>
       </c>
       <c r="G18" t="n">
-        <v>84.97468873196664</v>
+        <v>84.97468873196665</v>
       </c>
       <c r="H18" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I18" t="n">
-        <v>80.30713942463214</v>
+        <v>61.27650821499647</v>
       </c>
       <c r="J18" t="n">
-        <v>157.3772200898588</v>
+        <v>430.4490813498142</v>
       </c>
       <c r="K18" t="n">
-        <v>301.8024225063708</v>
+        <v>574.8742837663262</v>
       </c>
       <c r="L18" t="n">
-        <v>503.5273432700722</v>
+        <v>776.5992045300276</v>
       </c>
       <c r="M18" t="n">
-        <v>1020.371332003282</v>
+        <v>1015.148163389438</v>
       </c>
       <c r="N18" t="n">
-        <v>1267.575376777928</v>
+        <v>1262.352208164084</v>
       </c>
       <c r="O18" t="n">
-        <v>1490.10806579669</v>
+        <v>1484.884897182847</v>
       </c>
       <c r="P18" t="n">
-        <v>1665.568544298133</v>
+        <v>1660.345375684289</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.747358107031</v>
+        <v>1769.524189493187</v>
       </c>
       <c r="R18" t="n">
         <v>1815.368420915258</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>623.5347805350066</v>
+        <v>917.8156867638859</v>
       </c>
       <c r="C19" t="n">
-        <v>451.5622174139226</v>
+        <v>745.8431236428019</v>
       </c>
       <c r="D19" t="n">
-        <v>288.2454445406933</v>
+        <v>582.5263507695726</v>
       </c>
       <c r="E19" t="n">
-        <v>122.0372386935468</v>
+        <v>416.3181449224261</v>
       </c>
       <c r="F19" t="n">
-        <v>122.0372386935468</v>
+        <v>416.3181449224261</v>
       </c>
       <c r="G19" t="n">
-        <v>122.0372386935468</v>
+        <v>250.9436983189284</v>
       </c>
       <c r="H19" t="n">
-        <v>41.765170806724</v>
+        <v>114.9938624999944</v>
       </c>
       <c r="I19" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="J19" t="n">
-        <v>160.4092341331097</v>
+        <v>160.4092341331098</v>
       </c>
       <c r="K19" t="n">
-        <v>240.1469553758147</v>
+        <v>487.4295644898368</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8400275049847</v>
+        <v>970.7149806616953</v>
       </c>
       <c r="M19" t="n">
-        <v>506.0768935577028</v>
+        <v>1083.951846714413</v>
       </c>
       <c r="N19" t="n">
-        <v>1015.931010834124</v>
+        <v>1195.773041148955</v>
       </c>
       <c r="O19" t="n">
-        <v>1493.617430033296</v>
+        <v>1644.990927411195</v>
       </c>
       <c r="P19" t="n">
-        <v>1888.82973026689</v>
+        <v>2040.203227644789</v>
       </c>
       <c r="Q19" t="n">
         <v>2088.2585403362</v>
@@ -5700,25 +5700,25 @@
         <v>2080.90137487636</v>
       </c>
       <c r="S19" t="n">
-        <v>1926.146298186876</v>
+        <v>2080.90137487636</v>
       </c>
       <c r="T19" t="n">
-        <v>1686.577730940658</v>
+        <v>1841.332807630142</v>
       </c>
       <c r="U19" t="n">
-        <v>1406.441420064723</v>
+        <v>1841.332807630142</v>
       </c>
       <c r="V19" t="n">
-        <v>1124.729952672752</v>
+        <v>1841.332807630142</v>
       </c>
       <c r="W19" t="n">
-        <v>849.8775488452645</v>
+        <v>1566.480403802655</v>
       </c>
       <c r="X19" t="n">
-        <v>849.8775488452645</v>
+        <v>1323.91650724846</v>
       </c>
       <c r="Y19" t="n">
-        <v>623.5347805350066</v>
+        <v>1097.573738938202</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>250.994626732083</v>
+        <v>319.4845672225524</v>
       </c>
       <c r="C20" t="n">
-        <v>250.994626732083</v>
+        <v>319.4845672225524</v>
       </c>
       <c r="D20" t="n">
-        <v>250.994626732083</v>
+        <v>319.4845672225524</v>
       </c>
       <c r="E20" t="n">
-        <v>250.994626732083</v>
+        <v>319.4845672225524</v>
       </c>
       <c r="F20" t="n">
-        <v>250.994626732083</v>
+        <v>319.4845672225524</v>
       </c>
       <c r="G20" t="n">
-        <v>41.765170806724</v>
+        <v>319.4845672225524</v>
       </c>
       <c r="H20" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I20" t="n">
         <v>81.90283658475187</v>
       </c>
       <c r="J20" t="n">
-        <v>216.4375955691453</v>
+        <v>216.4375955691451</v>
       </c>
       <c r="K20" t="n">
         <v>426.3153339631738</v>
@@ -5761,10 +5761,10 @@
         <v>692.6837634020103</v>
       </c>
       <c r="M20" t="n">
-        <v>994.2162484390924</v>
+        <v>994.2162484390926</v>
       </c>
       <c r="N20" t="n">
-        <v>1301.377588188142</v>
+        <v>1301.377588188143</v>
       </c>
       <c r="O20" t="n">
         <v>1589.254351290328</v>
@@ -5773,31 +5773,31 @@
         <v>1829.34409569416</v>
       </c>
       <c r="Q20" t="n">
-        <v>2001.813423636736</v>
+        <v>2001.813423636737</v>
       </c>
       <c r="R20" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.2585403362</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.2585403362</v>
+        <v>1816.411016303345</v>
       </c>
       <c r="U20" t="n">
-        <v>1830.061025642126</v>
+        <v>1558.213501609271</v>
       </c>
       <c r="V20" t="n">
-        <v>1472.571610768376</v>
+        <v>1558.213501609271</v>
       </c>
       <c r="W20" t="n">
-        <v>1076.180261068723</v>
+        <v>1161.822151909618</v>
       </c>
       <c r="X20" t="n">
-        <v>1076.180261068723</v>
+        <v>750.1021530773653</v>
       </c>
       <c r="Y20" t="n">
-        <v>670.8429910236131</v>
+        <v>739.3329315140825</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>177.9757905910029</v>
       </c>
       <c r="G21" t="n">
-        <v>84.97468873196664</v>
+        <v>84.97468873196665</v>
       </c>
       <c r="H21" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I21" t="n">
-        <v>61.27650821499645</v>
+        <v>66.49967682884051</v>
       </c>
       <c r="J21" t="n">
-        <v>138.3465888802231</v>
+        <v>435.6722499636583</v>
       </c>
       <c r="K21" t="n">
-        <v>282.7717912967352</v>
+        <v>580.0974523801704</v>
       </c>
       <c r="L21" t="n">
-        <v>676.3668728589662</v>
+        <v>781.8223731438717</v>
       </c>
       <c r="M21" t="n">
-        <v>914.915831718376</v>
+        <v>1020.371332003282</v>
       </c>
       <c r="N21" t="n">
-        <v>1162.119876493023</v>
+        <v>1267.575376777928</v>
       </c>
       <c r="O21" t="n">
-        <v>1384.652565511785</v>
+        <v>1490.10806579669</v>
       </c>
       <c r="P21" t="n">
-        <v>1560.113044013227</v>
+        <v>1665.568544298133</v>
       </c>
       <c r="Q21" t="n">
-        <v>1669.291857822125</v>
+        <v>1774.747358107031</v>
       </c>
       <c r="R21" t="n">
         <v>1815.368420915258</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>515.0620163502397</v>
+        <v>678.2680003278246</v>
       </c>
       <c r="C22" t="n">
-        <v>343.0894532291557</v>
+        <v>678.2680003278246</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0894532291557</v>
+        <v>514.9512274545953</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0894532291557</v>
+        <v>514.9512274545953</v>
       </c>
       <c r="F22" t="n">
         <v>343.0894532291557</v>
@@ -5904,31 +5904,31 @@
         <v>177.715006625658</v>
       </c>
       <c r="H22" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I22" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="J22" t="n">
-        <v>82.48751748488888</v>
+        <v>160.4092341331098</v>
       </c>
       <c r="K22" t="n">
-        <v>409.5078478416159</v>
+        <v>487.4295644898368</v>
       </c>
       <c r="L22" t="n">
-        <v>516.4043704223094</v>
+        <v>942.2464477247643</v>
       </c>
       <c r="M22" t="n">
-        <v>883.7792178609061</v>
+        <v>1055.483313777482</v>
       </c>
       <c r="N22" t="n">
-        <v>1393.633335137328</v>
+        <v>1167.304508212024</v>
       </c>
       <c r="O22" t="n">
-        <v>1493.617430033296</v>
+        <v>1644.990927411195</v>
       </c>
       <c r="P22" t="n">
-        <v>1888.82973026689</v>
+        <v>2040.203227644789</v>
       </c>
       <c r="Q22" t="n">
         <v>2088.2585403362</v>
@@ -5940,22 +5940,22 @@
         <v>2080.90137487636</v>
       </c>
       <c r="T22" t="n">
-        <v>2010.834832022152</v>
+        <v>1947.698047689479</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.698521146216</v>
+        <v>1667.561736813543</v>
       </c>
       <c r="V22" t="n">
-        <v>1448.987053754245</v>
+        <v>1385.850269421572</v>
       </c>
       <c r="W22" t="n">
-        <v>1174.134649926758</v>
+        <v>1110.997865594085</v>
       </c>
       <c r="X22" t="n">
-        <v>931.5707533725633</v>
+        <v>868.4339690398901</v>
       </c>
       <c r="Y22" t="n">
-        <v>705.2279850623054</v>
+        <v>868.4339690398901</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>611.3085961849014</v>
+        <v>1251.386366332208</v>
       </c>
       <c r="C23" t="n">
-        <v>611.3085961849014</v>
+        <v>1251.386366332208</v>
       </c>
       <c r="D23" t="n">
-        <v>611.3085961849014</v>
+        <v>828.0937455172084</v>
       </c>
       <c r="E23" t="n">
-        <v>185.3316563327589</v>
+        <v>402.116805665066</v>
       </c>
       <c r="F23" t="n">
-        <v>41.765170806724</v>
+        <v>402.116805665066</v>
       </c>
       <c r="G23" t="n">
-        <v>41.765170806724</v>
+        <v>319.4845672225524</v>
       </c>
       <c r="H23" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I23" t="n">
         <v>81.90283658475187</v>
       </c>
       <c r="J23" t="n">
-        <v>216.4375955691452</v>
+        <v>216.4375955691451</v>
       </c>
       <c r="K23" t="n">
-        <v>426.3153339631737</v>
+        <v>426.3153339631738</v>
       </c>
       <c r="L23" t="n">
-        <v>692.6837634020101</v>
+        <v>692.6837634020103</v>
       </c>
       <c r="M23" t="n">
-        <v>994.2162484390922</v>
+        <v>994.2162484390926</v>
       </c>
       <c r="N23" t="n">
-        <v>1301.377588188142</v>
+        <v>1301.377588188143</v>
       </c>
       <c r="O23" t="n">
         <v>1589.254351290328</v>
@@ -6010,31 +6010,31 @@
         <v>1829.34409569416</v>
       </c>
       <c r="Q23" t="n">
-        <v>2001.813423636736</v>
+        <v>2001.813423636737</v>
       </c>
       <c r="R23" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="S23" t="n">
-        <v>2028.724145497488</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="T23" t="n">
-        <v>2028.724145497488</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="U23" t="n">
-        <v>1770.526630803415</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="V23" t="n">
-        <v>1413.037215929664</v>
+        <v>1671.234730623738</v>
       </c>
       <c r="W23" t="n">
-        <v>1016.645866230011</v>
+        <v>1671.234730623738</v>
       </c>
       <c r="X23" t="n">
-        <v>1016.645866230011</v>
+        <v>1671.234730623738</v>
       </c>
       <c r="Y23" t="n">
-        <v>611.3085961849014</v>
+        <v>1671.234730623738</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>177.9757905910029</v>
       </c>
       <c r="G24" t="n">
-        <v>84.97468873196664</v>
+        <v>84.97468873196665</v>
       </c>
       <c r="H24" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I24" t="n">
-        <v>61.27650821499645</v>
+        <v>84.7338140594083</v>
       </c>
       <c r="J24" t="n">
-        <v>138.3465888802231</v>
+        <v>330.2167496787522</v>
       </c>
       <c r="K24" t="n">
-        <v>282.7717912967352</v>
+        <v>474.6419520952643</v>
       </c>
       <c r="L24" t="n">
-        <v>484.4967120604365</v>
+        <v>676.3668728589656</v>
       </c>
       <c r="M24" t="n">
-        <v>723.0456709198463</v>
+        <v>914.9158317183756</v>
       </c>
       <c r="N24" t="n">
-        <v>1239.889659653056</v>
+        <v>1162.119876493022</v>
       </c>
       <c r="O24" t="n">
-        <v>1462.422348671818</v>
+        <v>1384.652565511785</v>
       </c>
       <c r="P24" t="n">
-        <v>1637.88282717326</v>
+        <v>1560.113044013227</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.747358107031</v>
+        <v>1669.291857822125</v>
       </c>
       <c r="R24" t="n">
         <v>1815.368420915258</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>433.3688118229409</v>
+        <v>720.8622881587173</v>
       </c>
       <c r="C25" t="n">
-        <v>261.396248701857</v>
+        <v>548.8897250376333</v>
       </c>
       <c r="D25" t="n">
-        <v>98.07947582862766</v>
+        <v>385.572952164404</v>
       </c>
       <c r="E25" t="n">
-        <v>98.07947582862766</v>
+        <v>385.572952164404</v>
       </c>
       <c r="F25" t="n">
-        <v>98.07947582862766</v>
+        <v>213.7111779389644</v>
       </c>
       <c r="G25" t="n">
-        <v>41.765170806724</v>
+        <v>48.33673133546677</v>
       </c>
       <c r="H25" t="n">
-        <v>41.765170806724</v>
+        <v>48.33673133546677</v>
       </c>
       <c r="I25" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="J25" t="n">
-        <v>160.4092341331097</v>
+        <v>160.4092341331098</v>
       </c>
       <c r="K25" t="n">
-        <v>411.4122039249021</v>
+        <v>240.1469553758148</v>
       </c>
       <c r="L25" t="n">
-        <v>518.3087265055956</v>
+        <v>347.0434779565082</v>
       </c>
       <c r="M25" t="n">
-        <v>1035.152715238805</v>
+        <v>863.8874666897178</v>
       </c>
       <c r="N25" t="n">
-        <v>1545.006832515227</v>
+        <v>1373.741583966139</v>
       </c>
       <c r="O25" t="n">
-        <v>1644.990927411195</v>
+        <v>1851.428003165311</v>
       </c>
       <c r="P25" t="n">
-        <v>2040.203227644789</v>
+        <v>1933.884098825597</v>
       </c>
       <c r="Q25" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="R25" t="n">
-        <v>2080.90137487636</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="S25" t="n">
-        <v>1926.146298186876</v>
+        <v>1933.503463646717</v>
       </c>
       <c r="T25" t="n">
-        <v>1686.577730940658</v>
+        <v>1693.934896400499</v>
       </c>
       <c r="U25" t="n">
-        <v>1406.441420064723</v>
+        <v>1693.934896400499</v>
       </c>
       <c r="V25" t="n">
-        <v>1124.729952672752</v>
+        <v>1412.223429008528</v>
       </c>
       <c r="W25" t="n">
-        <v>849.8775488452645</v>
+        <v>1137.371025181041</v>
       </c>
       <c r="X25" t="n">
-        <v>849.8775488452645</v>
+        <v>1137.371025181041</v>
       </c>
       <c r="Y25" t="n">
-        <v>623.5347805350066</v>
+        <v>911.028256870783</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>795.38681669041</v>
+        <v>874.8099217591849</v>
       </c>
       <c r="C26" t="n">
-        <v>368.4860867037101</v>
+        <v>447.909191772485</v>
       </c>
       <c r="D26" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I26" t="n">
-        <v>81.90283658475192</v>
+        <v>81.90283658475187</v>
       </c>
       <c r="J26" t="n">
-        <v>216.4375955691452</v>
+        <v>216.4375955691451</v>
       </c>
       <c r="K26" t="n">
         <v>426.3153339631738</v>
@@ -6235,43 +6235,43 @@
         <v>692.6837634020103</v>
       </c>
       <c r="M26" t="n">
-        <v>994.2162484390922</v>
+        <v>994.2162484390926</v>
       </c>
       <c r="N26" t="n">
-        <v>1301.377588188142</v>
+        <v>1301.377588188143</v>
       </c>
       <c r="O26" t="n">
         <v>1589.254351290328</v>
       </c>
       <c r="P26" t="n">
-        <v>1829.344095694159</v>
+        <v>1829.34409569416</v>
       </c>
       <c r="Q26" t="n">
-        <v>2001.813423636736</v>
+        <v>2001.813423636737</v>
       </c>
       <c r="R26" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="S26" t="n">
-        <v>2028.724145497488</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="T26" t="n">
-        <v>1816.411016303344</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="U26" t="n">
-        <v>1558.21350160927</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="V26" t="n">
-        <v>1200.72408673552</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="W26" t="n">
-        <v>1200.72408673552</v>
+        <v>1691.867190636547</v>
       </c>
       <c r="X26" t="n">
-        <v>1200.72408673552</v>
+        <v>1280.147191804295</v>
       </c>
       <c r="Y26" t="n">
-        <v>795.38681669041</v>
+        <v>874.8099217591849</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>177.9757905910029</v>
       </c>
       <c r="G27" t="n">
-        <v>84.97468873196664</v>
+        <v>84.97468873196665</v>
       </c>
       <c r="H27" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I27" t="n">
-        <v>84.73381405940827</v>
+        <v>61.27650821499647</v>
       </c>
       <c r="J27" t="n">
-        <v>330.2167496787529</v>
+        <v>430.4490813498142</v>
       </c>
       <c r="K27" t="n">
-        <v>474.6419520952649</v>
+        <v>574.8742837663262</v>
       </c>
       <c r="L27" t="n">
-        <v>676.3668728589662</v>
+        <v>776.5992045300276</v>
       </c>
       <c r="M27" t="n">
-        <v>914.915831718376</v>
+        <v>1015.148163389438</v>
       </c>
       <c r="N27" t="n">
-        <v>1162.119876493023</v>
+        <v>1262.352208164084</v>
       </c>
       <c r="O27" t="n">
-        <v>1384.652565511785</v>
+        <v>1484.884897182847</v>
       </c>
       <c r="P27" t="n">
-        <v>1560.113044013227</v>
+        <v>1660.345375684289</v>
       </c>
       <c r="Q27" t="n">
-        <v>1669.291857822125</v>
+        <v>1769.524189493187</v>
       </c>
       <c r="R27" t="n">
         <v>1815.368420915258</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.0545068010373</v>
+        <v>213.737733927808</v>
       </c>
       <c r="C28" t="n">
-        <v>205.0819436799533</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="E28" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="F28" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76517080672399</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="J28" t="n">
-        <v>160.4092341331097</v>
+        <v>115.3548655744027</v>
       </c>
       <c r="K28" t="n">
-        <v>285.9435049242908</v>
+        <v>195.0925868171076</v>
       </c>
       <c r="L28" t="n">
-        <v>392.8400275049843</v>
+        <v>301.9891093978011</v>
       </c>
       <c r="M28" t="n">
-        <v>506.0768935577024</v>
+        <v>818.8330981310107</v>
       </c>
       <c r="N28" t="n">
-        <v>1015.931010834124</v>
+        <v>1328.687215407432</v>
       </c>
       <c r="O28" t="n">
-        <v>1493.617430033295</v>
+        <v>1806.373634606604</v>
       </c>
       <c r="P28" t="n">
-        <v>1888.829730266889</v>
+        <v>1888.82973026689</v>
       </c>
       <c r="Q28" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="R28" t="n">
-        <v>2080.901374876359</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="S28" t="n">
-        <v>1926.146298186876</v>
+        <v>1933.503463646717</v>
       </c>
       <c r="T28" t="n">
-        <v>1686.577730940658</v>
+        <v>1709.51054959972</v>
       </c>
       <c r="U28" t="n">
-        <v>1406.441420064722</v>
+        <v>1429.374238723785</v>
       </c>
       <c r="V28" t="n">
-        <v>1124.729952672751</v>
+        <v>1147.662771331813</v>
       </c>
       <c r="W28" t="n">
-        <v>849.8775488452641</v>
+        <v>872.8103675043266</v>
       </c>
       <c r="X28" t="n">
-        <v>793.5632438233608</v>
+        <v>630.2464709501317</v>
       </c>
       <c r="Y28" t="n">
-        <v>567.2204755131029</v>
+        <v>403.9037026398736</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1317.935461460566</v>
+        <v>1743.059643271166</v>
       </c>
       <c r="C29" t="n">
-        <v>891.0347314738661</v>
+        <v>1316.158913284466</v>
       </c>
       <c r="D29" t="n">
-        <v>467.7421106588664</v>
+        <v>892.8662924694663</v>
       </c>
       <c r="E29" t="n">
-        <v>41.765170806724</v>
+        <v>466.8893526173238</v>
       </c>
       <c r="F29" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="G29" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H29" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I29" t="n">
-        <v>81.90283658475209</v>
+        <v>81.90283658475198</v>
       </c>
       <c r="J29" t="n">
         <v>216.4375955691453</v>
       </c>
       <c r="K29" t="n">
-        <v>426.3153339631738</v>
+        <v>426.3153339631739</v>
       </c>
       <c r="L29" t="n">
         <v>692.6837634020103</v>
       </c>
       <c r="M29" t="n">
-        <v>994.2162484390924</v>
+        <v>994.2162484390926</v>
       </c>
       <c r="N29" t="n">
-        <v>1301.377588188142</v>
+        <v>1301.377588188143</v>
       </c>
       <c r="O29" t="n">
         <v>1589.254351290328</v>
@@ -6484,31 +6484,31 @@
         <v>1829.34409569416</v>
       </c>
       <c r="Q29" t="n">
-        <v>2001.813423636736</v>
+        <v>2001.813423636737</v>
       </c>
       <c r="R29" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="S29" t="n">
-        <v>2028.724145497488</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="T29" t="n">
-        <v>1816.411016303344</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="U29" t="n">
-        <v>1816.411016303344</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="V29" t="n">
-        <v>1729.655460292819</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="W29" t="n">
-        <v>1729.655460292819</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="X29" t="n">
-        <v>1317.935461460566</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="Y29" t="n">
-        <v>1317.935461460566</v>
+        <v>2028.724145497489</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>177.9757905910029</v>
       </c>
       <c r="G30" t="n">
-        <v>84.97468873196664</v>
+        <v>84.97468873196665</v>
       </c>
       <c r="H30" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I30" t="n">
-        <v>61.27650821499645</v>
+        <v>84.7338140594083</v>
       </c>
       <c r="J30" t="n">
-        <v>138.3465888802231</v>
+        <v>161.803894724635</v>
       </c>
       <c r="K30" t="n">
-        <v>282.7717912967352</v>
+        <v>474.6419520952643</v>
       </c>
       <c r="L30" t="n">
-        <v>484.4967120604365</v>
+        <v>676.3668728589656</v>
       </c>
       <c r="M30" t="n">
-        <v>723.0456709198463</v>
+        <v>914.9158317183756</v>
       </c>
       <c r="N30" t="n">
-        <v>970.249715694493</v>
+        <v>1162.119876493022</v>
       </c>
       <c r="O30" t="n">
-        <v>1192.782404713255</v>
+        <v>1384.652565511785</v>
       </c>
       <c r="P30" t="n">
-        <v>1665.568544298133</v>
+        <v>1560.113044013227</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.747358107031</v>
+        <v>1669.291857822125</v>
       </c>
       <c r="R30" t="n">
         <v>1815.368420915258</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.804915268746</v>
+        <v>543.2627126481838</v>
       </c>
       <c r="C31" t="n">
-        <v>41.765170806724</v>
+        <v>371.2901495270997</v>
       </c>
       <c r="D31" t="n">
-        <v>41.765170806724</v>
+        <v>207.9733766538704</v>
       </c>
       <c r="E31" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="F31" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="G31" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H31" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I31" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="J31" t="n">
-        <v>160.4092341331097</v>
+        <v>82.48751748488891</v>
       </c>
       <c r="K31" t="n">
-        <v>240.1469553758147</v>
+        <v>162.2252387275939</v>
       </c>
       <c r="L31" t="n">
-        <v>347.0434779565082</v>
+        <v>453.3626067757001</v>
       </c>
       <c r="M31" t="n">
-        <v>863.8874666897177</v>
+        <v>970.2065955089097</v>
       </c>
       <c r="N31" t="n">
-        <v>1373.741583966139</v>
+        <v>1480.060712785331</v>
       </c>
       <c r="O31" t="n">
-        <v>1493.617430033296</v>
+        <v>1957.747131984503</v>
       </c>
       <c r="P31" t="n">
-        <v>1888.82973026689</v>
+        <v>2040.203227644789</v>
       </c>
       <c r="Q31" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="R31" t="n">
-        <v>2080.90137487636</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="S31" t="n">
-        <v>1926.146298186876</v>
+        <v>1933.503463646717</v>
       </c>
       <c r="T31" t="n">
-        <v>1686.577730940658</v>
+        <v>1796.471631765901</v>
       </c>
       <c r="U31" t="n">
-        <v>1406.441420064723</v>
+        <v>1516.335320889965</v>
       </c>
       <c r="V31" t="n">
-        <v>1124.729952672752</v>
+        <v>1234.623853497994</v>
       </c>
       <c r="W31" t="n">
-        <v>849.8775488452645</v>
+        <v>959.7714496705073</v>
       </c>
       <c r="X31" t="n">
-        <v>607.3136522910696</v>
+        <v>959.7714496705073</v>
       </c>
       <c r="Y31" t="n">
-        <v>380.9708839808117</v>
+        <v>733.4286813602494</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1138.365137317741</v>
+        <v>1743.059643271166</v>
       </c>
       <c r="C32" t="n">
-        <v>711.4644073310408</v>
+        <v>1316.158913284466</v>
       </c>
       <c r="D32" t="n">
-        <v>711.4644073310408</v>
+        <v>892.8662924694662</v>
       </c>
       <c r="E32" t="n">
-        <v>711.4644073310408</v>
+        <v>466.8893526173238</v>
       </c>
       <c r="F32" t="n">
-        <v>711.4644073310408</v>
+        <v>41.765170806724</v>
       </c>
       <c r="G32" t="n">
-        <v>309.0927787894152</v>
+        <v>41.765170806724</v>
       </c>
       <c r="H32" t="n">
         <v>41.765170806724</v>
       </c>
       <c r="I32" t="n">
-        <v>81.90283658475198</v>
+        <v>81.90283658475195</v>
       </c>
       <c r="J32" t="n">
         <v>216.4375955691453</v>
@@ -6706,7 +6706,7 @@
         <v>426.3153339631738</v>
       </c>
       <c r="L32" t="n">
-        <v>692.6837634020102</v>
+        <v>692.6837634020103</v>
       </c>
       <c r="M32" t="n">
         <v>994.2162484390924</v>
@@ -6730,22 +6730,22 @@
         <v>2028.724145497488</v>
       </c>
       <c r="T32" t="n">
-        <v>1816.411016303344</v>
+        <v>2028.724145497488</v>
       </c>
       <c r="U32" t="n">
-        <v>1558.213501609271</v>
+        <v>2028.724145497488</v>
       </c>
       <c r="V32" t="n">
-        <v>1558.213501609271</v>
+        <v>2028.724145497488</v>
       </c>
       <c r="W32" t="n">
-        <v>1558.213501609271</v>
+        <v>2028.724145497488</v>
       </c>
       <c r="X32" t="n">
-        <v>1558.213501609271</v>
+        <v>2028.724145497488</v>
       </c>
       <c r="Y32" t="n">
-        <v>1558.213501609271</v>
+        <v>2028.724145497488</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>41.765170806724</v>
       </c>
       <c r="I33" t="n">
-        <v>61.27650821499645</v>
+        <v>61.27650821499647</v>
       </c>
       <c r="J33" t="n">
-        <v>138.3465888802231</v>
+        <v>430.4490813498142</v>
       </c>
       <c r="K33" t="n">
-        <v>282.7717912967352</v>
+        <v>574.8742837663262</v>
       </c>
       <c r="L33" t="n">
-        <v>484.4967120604365</v>
+        <v>776.5992045300276</v>
       </c>
       <c r="M33" t="n">
-        <v>723.0456709198463</v>
+        <v>1015.148163389438</v>
       </c>
       <c r="N33" t="n">
-        <v>970.249715694493</v>
+        <v>1262.352208164084</v>
       </c>
       <c r="O33" t="n">
-        <v>1192.782404713255</v>
+        <v>1484.884897182847</v>
       </c>
       <c r="P33" t="n">
-        <v>1560.113044013227</v>
+        <v>1660.345375684289</v>
       </c>
       <c r="Q33" t="n">
-        <v>1669.291857822125</v>
+        <v>1769.524189493187</v>
       </c>
       <c r="R33" t="n">
         <v>1815.368420915258</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>708.526370356037</v>
+        <v>714.2907276299745</v>
       </c>
       <c r="C34" t="n">
-        <v>708.526370356037</v>
+        <v>542.3181645088905</v>
       </c>
       <c r="D34" t="n">
-        <v>545.2095974828077</v>
+        <v>379.0013916356612</v>
       </c>
       <c r="E34" t="n">
         <v>379.0013916356612</v>
@@ -6861,16 +6861,16 @@
         <v>160.4092341331097</v>
       </c>
       <c r="K34" t="n">
-        <v>240.1469553758147</v>
+        <v>487.4295644898368</v>
       </c>
       <c r="L34" t="n">
-        <v>392.8400275049847</v>
+        <v>594.3260870705303</v>
       </c>
       <c r="M34" t="n">
-        <v>506.0768935577028</v>
+        <v>1111.17007580374</v>
       </c>
       <c r="N34" t="n">
-        <v>1015.931010834124</v>
+        <v>1222.991270238281</v>
       </c>
       <c r="O34" t="n">
         <v>1493.617430033296</v>
@@ -6882,28 +6882,28 @@
         <v>2088.2585403362</v>
       </c>
       <c r="R34" t="n">
-        <v>2080.90137487636</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="S34" t="n">
-        <v>1926.146298186876</v>
+        <v>1933.503463646717</v>
       </c>
       <c r="T34" t="n">
-        <v>1926.146298186876</v>
+        <v>1708.868371164142</v>
       </c>
       <c r="U34" t="n">
-        <v>1646.009987310941</v>
+        <v>1428.732060288206</v>
       </c>
       <c r="V34" t="n">
-        <v>1367.599003932555</v>
+        <v>1147.020592896235</v>
       </c>
       <c r="W34" t="n">
-        <v>1367.599003932555</v>
+        <v>1147.020592896235</v>
       </c>
       <c r="X34" t="n">
-        <v>1125.035107378361</v>
+        <v>904.4566963420402</v>
       </c>
       <c r="Y34" t="n">
-        <v>898.6923390681027</v>
+        <v>904.4566963420402</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.4693619260523</v>
+        <v>1148.756925750878</v>
       </c>
       <c r="C35" t="n">
-        <v>526.5686319393524</v>
+        <v>721.856195764178</v>
       </c>
       <c r="D35" t="n">
-        <v>526.5686319393524</v>
+        <v>721.856195764178</v>
       </c>
       <c r="E35" t="n">
-        <v>100.5916920872099</v>
+        <v>721.856195764178</v>
       </c>
       <c r="F35" t="n">
-        <v>100.5916920872099</v>
+        <v>721.856195764178</v>
       </c>
       <c r="G35" t="n">
-        <v>41.765170806724</v>
+        <v>319.4845672225524</v>
       </c>
       <c r="H35" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I35" t="n">
-        <v>81.90283658475187</v>
+        <v>81.90283658475209</v>
       </c>
       <c r="J35" t="n">
-        <v>216.4375955691453</v>
+        <v>216.4375955691455</v>
       </c>
       <c r="K35" t="n">
-        <v>426.3153339631738</v>
+        <v>426.3153339631742</v>
       </c>
       <c r="L35" t="n">
-        <v>692.6837634020103</v>
+        <v>692.6837634020106</v>
       </c>
       <c r="M35" t="n">
-        <v>994.2162484390924</v>
+        <v>994.2162484390929</v>
       </c>
       <c r="N35" t="n">
-        <v>1301.377588188142</v>
+        <v>1301.377588188143</v>
       </c>
       <c r="O35" t="n">
         <v>1589.254351290328</v>
@@ -6958,31 +6958,31 @@
         <v>1829.34409569416</v>
       </c>
       <c r="Q35" t="n">
-        <v>2001.813423636736</v>
+        <v>2001.813423636737</v>
       </c>
       <c r="R35" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="S35" t="n">
-        <v>2028.724145497488</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="T35" t="n">
-        <v>2028.724145497488</v>
+        <v>1816.411016303345</v>
       </c>
       <c r="U35" t="n">
-        <v>1770.526630803415</v>
+        <v>1558.213501609271</v>
       </c>
       <c r="V35" t="n">
-        <v>1770.526630803415</v>
+        <v>1545.148275450531</v>
       </c>
       <c r="W35" t="n">
-        <v>1770.526630803415</v>
+        <v>1148.756925750878</v>
       </c>
       <c r="X35" t="n">
-        <v>1358.806631971162</v>
+        <v>1148.756925750878</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.4693619260523</v>
+        <v>1148.756925750878</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>177.9757905910029</v>
       </c>
       <c r="G36" t="n">
-        <v>84.97468873196664</v>
+        <v>84.97468873196665</v>
       </c>
       <c r="H36" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I36" t="n">
-        <v>61.27650821499645</v>
+        <v>84.7338140594083</v>
       </c>
       <c r="J36" t="n">
-        <v>138.3465888802231</v>
+        <v>330.2167496787522</v>
       </c>
       <c r="K36" t="n">
-        <v>282.7717912967352</v>
+        <v>474.6419520952643</v>
       </c>
       <c r="L36" t="n">
-        <v>484.4967120604365</v>
+        <v>676.3668728589656</v>
       </c>
       <c r="M36" t="n">
-        <v>723.0456709198463</v>
+        <v>914.9158317183756</v>
       </c>
       <c r="N36" t="n">
-        <v>970.249715694493</v>
+        <v>1162.119876493022</v>
       </c>
       <c r="O36" t="n">
-        <v>1487.093704427703</v>
+        <v>1384.652565511785</v>
       </c>
       <c r="P36" t="n">
-        <v>1662.554182929145</v>
+        <v>1560.113044013227</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.747358107031</v>
+        <v>1669.291857822125</v>
       </c>
       <c r="R36" t="n">
         <v>1815.368420915258</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.737733927808</v>
+        <v>458.828199846518</v>
       </c>
       <c r="C37" t="n">
-        <v>41.765170806724</v>
+        <v>286.855636725434</v>
       </c>
       <c r="D37" t="n">
-        <v>41.765170806724</v>
+        <v>286.855636725434</v>
       </c>
       <c r="E37" t="n">
-        <v>41.765170806724</v>
+        <v>286.855636725434</v>
       </c>
       <c r="F37" t="n">
-        <v>41.765170806724</v>
+        <v>114.9938624999944</v>
       </c>
       <c r="G37" t="n">
-        <v>41.765170806724</v>
+        <v>114.9938624999944</v>
       </c>
       <c r="H37" t="n">
-        <v>41.765170806724</v>
+        <v>114.9938624999944</v>
       </c>
       <c r="I37" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="J37" t="n">
-        <v>82.48751748488888</v>
+        <v>82.48751748488891</v>
       </c>
       <c r="K37" t="n">
         <v>162.2252387275939</v>
       </c>
       <c r="L37" t="n">
-        <v>269.1217613082873</v>
+        <v>453.3626067757001</v>
       </c>
       <c r="M37" t="n">
-        <v>506.0768935577028</v>
+        <v>970.2065955089097</v>
       </c>
       <c r="N37" t="n">
-        <v>1015.931010834124</v>
+        <v>1480.060712785331</v>
       </c>
       <c r="O37" t="n">
-        <v>1493.617430033296</v>
+        <v>1957.747131984503</v>
       </c>
       <c r="P37" t="n">
-        <v>1888.82973026689</v>
+        <v>2040.203227644789</v>
       </c>
       <c r="Q37" t="n">
         <v>2088.2585403362</v>
@@ -7122,25 +7122,25 @@
         <v>2080.90137487636</v>
       </c>
       <c r="S37" t="n">
-        <v>1926.146298186876</v>
+        <v>1954.60101551843</v>
       </c>
       <c r="T37" t="n">
-        <v>1709.51054959972</v>
+        <v>1954.60101551843</v>
       </c>
       <c r="U37" t="n">
-        <v>1429.374238723785</v>
+        <v>1674.464704642495</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.662771331813</v>
+        <v>1392.753237250523</v>
       </c>
       <c r="W37" t="n">
-        <v>872.8103675043266</v>
+        <v>1117.900833423036</v>
       </c>
       <c r="X37" t="n">
-        <v>630.2464709501317</v>
+        <v>875.3369368688416</v>
       </c>
       <c r="Y37" t="n">
-        <v>403.9037026398736</v>
+        <v>648.9941685585836</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>869.2609811589493</v>
+        <v>1319.767022456166</v>
       </c>
       <c r="C38" t="n">
-        <v>869.2609811589493</v>
+        <v>892.8662924694663</v>
       </c>
       <c r="D38" t="n">
-        <v>869.2609811589493</v>
+        <v>892.8662924694663</v>
       </c>
       <c r="E38" t="n">
-        <v>869.2609811589493</v>
+        <v>466.8893526173238</v>
       </c>
       <c r="F38" t="n">
-        <v>444.1367993483495</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="G38" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H38" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I38" t="n">
         <v>81.90283658475198</v>
@@ -7177,16 +7177,16 @@
         <v>216.4375955691453</v>
       </c>
       <c r="K38" t="n">
-        <v>426.3153339631738</v>
+        <v>426.3153339631739</v>
       </c>
       <c r="L38" t="n">
-        <v>692.6837634020102</v>
+        <v>692.6837634020103</v>
       </c>
       <c r="M38" t="n">
-        <v>994.2162484390924</v>
+        <v>994.2162484390926</v>
       </c>
       <c r="N38" t="n">
-        <v>1301.377588188142</v>
+        <v>1301.377588188143</v>
       </c>
       <c r="O38" t="n">
         <v>1589.254351290328</v>
@@ -7195,31 +7195,31 @@
         <v>1829.34409569416</v>
       </c>
       <c r="Q38" t="n">
-        <v>2001.813423636736</v>
+        <v>2001.813423636737</v>
       </c>
       <c r="R38" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="S38" t="n">
-        <v>2028.724145497488</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="T38" t="n">
-        <v>2028.724145497488</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="U38" t="n">
-        <v>1770.526630803415</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="V38" t="n">
-        <v>1770.526630803415</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="W38" t="n">
-        <v>1686.318250036312</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="X38" t="n">
-        <v>1274.598251204059</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="Y38" t="n">
-        <v>869.2609811589493</v>
+        <v>1739.615386747696</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>177.9757905910029</v>
       </c>
       <c r="G39" t="n">
-        <v>84.97468873196664</v>
+        <v>84.97468873196665</v>
       </c>
       <c r="H39" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I39" t="n">
-        <v>61.27650821499645</v>
+        <v>84.7338140594083</v>
       </c>
       <c r="J39" t="n">
-        <v>141.3609502492111</v>
+        <v>161.803894724635</v>
       </c>
       <c r="K39" t="n">
-        <v>285.7861526657231</v>
+        <v>306.2290971411471</v>
       </c>
       <c r="L39" t="n">
-        <v>487.5110734294244</v>
+        <v>507.9540179048485</v>
       </c>
       <c r="M39" t="n">
-        <v>726.0600322888342</v>
+        <v>746.5029767642584</v>
       </c>
       <c r="N39" t="n">
-        <v>973.264077063481</v>
+        <v>993.7070215389051</v>
       </c>
       <c r="O39" t="n">
-        <v>1490.10806579669</v>
+        <v>1216.239710557667</v>
       </c>
       <c r="P39" t="n">
-        <v>1665.568544298133</v>
+        <v>1391.70018905911</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.747358107031</v>
+        <v>1669.291857822125</v>
       </c>
       <c r="R39" t="n">
         <v>1815.368420915258</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.2627126481838</v>
+        <v>715.1244868736234</v>
       </c>
       <c r="C40" t="n">
-        <v>371.2901495270997</v>
+        <v>543.1519237525393</v>
       </c>
       <c r="D40" t="n">
-        <v>207.9733766538704</v>
+        <v>379.83515087931</v>
       </c>
       <c r="E40" t="n">
-        <v>41.765170806724</v>
+        <v>213.6269450321636</v>
       </c>
       <c r="F40" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="G40" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H40" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I40" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="J40" t="n">
-        <v>82.48751748488888</v>
+        <v>115.3548655744027</v>
       </c>
       <c r="K40" t="n">
-        <v>409.5078478416159</v>
+        <v>195.0925868171076</v>
       </c>
       <c r="L40" t="n">
-        <v>516.4043704223094</v>
+        <v>301.9891093978011</v>
       </c>
       <c r="M40" t="n">
-        <v>629.6412364750274</v>
+        <v>818.8330981310107</v>
       </c>
       <c r="N40" t="n">
-        <v>1139.495353751449</v>
+        <v>1328.687215407432</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.18177295062</v>
+        <v>1806.373634606604</v>
       </c>
       <c r="P40" t="n">
-        <v>2012.394073184214</v>
+        <v>1888.82973026689</v>
       </c>
       <c r="Q40" t="n">
         <v>2088.2585403362</v>
@@ -7359,25 +7359,25 @@
         <v>2080.90137487636</v>
       </c>
       <c r="S40" t="n">
-        <v>1926.146298186876</v>
+        <v>2080.90137487636</v>
       </c>
       <c r="T40" t="n">
-        <v>1686.577730940658</v>
+        <v>1841.332807630142</v>
       </c>
       <c r="U40" t="n">
-        <v>1406.441420064723</v>
+        <v>1649.049524277629</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.729952672752</v>
+        <v>1649.049524277629</v>
       </c>
       <c r="W40" t="n">
-        <v>849.8775488452645</v>
+        <v>1374.197120450142</v>
       </c>
       <c r="X40" t="n">
-        <v>733.4286813602494</v>
+        <v>1131.633223895947</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.4286813602494</v>
+        <v>905.290455585689</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>945.3409964667751</v>
+        <v>1296.161711145649</v>
       </c>
       <c r="C41" t="n">
-        <v>518.4402664800753</v>
+        <v>869.2609811589493</v>
       </c>
       <c r="D41" t="n">
-        <v>444.1367993483495</v>
+        <v>869.2609811589493</v>
       </c>
       <c r="E41" t="n">
-        <v>444.1367993483495</v>
+        <v>869.2609811589493</v>
       </c>
       <c r="F41" t="n">
-        <v>444.1367993483495</v>
+        <v>444.1367993483496</v>
       </c>
       <c r="G41" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H41" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I41" t="n">
-        <v>81.90283658475198</v>
+        <v>81.90283658475187</v>
       </c>
       <c r="J41" t="n">
-        <v>216.4375955691453</v>
+        <v>216.4375955691451</v>
       </c>
       <c r="K41" t="n">
         <v>426.3153339631738</v>
       </c>
       <c r="L41" t="n">
-        <v>692.6837634020102</v>
+        <v>692.6837634020103</v>
       </c>
       <c r="M41" t="n">
-        <v>994.2162484390924</v>
+        <v>994.2162484390926</v>
       </c>
       <c r="N41" t="n">
-        <v>1301.377588188142</v>
+        <v>1301.377588188143</v>
       </c>
       <c r="O41" t="n">
         <v>1589.254351290328</v>
@@ -7432,31 +7432,31 @@
         <v>1829.34409569416</v>
       </c>
       <c r="Q41" t="n">
-        <v>2001.813423636736</v>
+        <v>2001.813423636737</v>
       </c>
       <c r="R41" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="S41" t="n">
-        <v>2028.724145497488</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="T41" t="n">
-        <v>2028.724145497488</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="U41" t="n">
-        <v>1770.526630803415</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="V41" t="n">
-        <v>1770.526630803415</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="W41" t="n">
-        <v>1770.526630803415</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="X41" t="n">
-        <v>1770.526630803415</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="Y41" t="n">
-        <v>1365.189360758305</v>
+        <v>1682.921270291091</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>870.5595360233136</v>
+        <v>597.6694166023717</v>
       </c>
       <c r="C42" t="n">
-        <v>753.0536325408184</v>
+        <v>480.1635131198765</v>
       </c>
       <c r="D42" t="n">
-        <v>649.2136740561034</v>
+        <v>376.3235546351615</v>
       </c>
       <c r="E42" t="n">
-        <v>544.5117403290407</v>
+        <v>271.6216209080987</v>
       </c>
       <c r="F42" t="n">
-        <v>450.8659100119448</v>
+        <v>177.9757905910029</v>
       </c>
       <c r="G42" t="n">
-        <v>357.8648081529086</v>
+        <v>84.97468873196665</v>
       </c>
       <c r="H42" t="n">
-        <v>314.6552902276659</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I42" t="n">
-        <v>334.1666276359383</v>
+        <v>84.7338140594083</v>
       </c>
       <c r="J42" t="n">
-        <v>411.236708301165</v>
+        <v>161.803894724635</v>
       </c>
       <c r="K42" t="n">
-        <v>555.661910717677</v>
+        <v>306.2290971411471</v>
       </c>
       <c r="L42" t="n">
-        <v>757.3868314813783</v>
+        <v>507.9540179048485</v>
       </c>
       <c r="M42" t="n">
-        <v>995.9357903407881</v>
+        <v>746.5029767642584</v>
       </c>
       <c r="N42" t="n">
-        <v>1243.139835115435</v>
+        <v>993.7070215389051</v>
       </c>
       <c r="O42" t="n">
-        <v>1465.672524134197</v>
+        <v>1216.239710557667</v>
       </c>
       <c r="P42" t="n">
-        <v>1641.13300263564</v>
+        <v>1391.70018905911</v>
       </c>
       <c r="Q42" t="n">
-        <v>2047.637477527973</v>
+        <v>1669.291857822125</v>
       </c>
       <c r="R42" t="n">
-        <v>2088.2585403362</v>
+        <v>1815.368420915258</v>
       </c>
       <c r="S42" t="n">
-        <v>2026.487175026526</v>
+        <v>1753.597055605584</v>
       </c>
       <c r="T42" t="n">
-        <v>1888.85023783108</v>
+        <v>1615.960118410138</v>
       </c>
       <c r="U42" t="n">
-        <v>1704.151296350938</v>
+        <v>1431.261176929996</v>
       </c>
       <c r="V42" t="n">
-        <v>1499.178157490204</v>
+        <v>1226.288038069262</v>
       </c>
       <c r="W42" t="n">
-        <v>1302.656780323421</v>
+        <v>1029.766660902479</v>
       </c>
       <c r="X42" t="n">
-        <v>1139.179434090084</v>
+        <v>866.2893146691421</v>
       </c>
       <c r="Y42" t="n">
-        <v>999.4865454433764</v>
+        <v>726.5964260224345</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.5263507695726</v>
+        <v>542.3181645088905</v>
       </c>
       <c r="C43" t="n">
-        <v>582.5263507695726</v>
+        <v>542.3181645088905</v>
       </c>
       <c r="D43" t="n">
-        <v>582.5263507695726</v>
+        <v>379.0013916356612</v>
       </c>
       <c r="E43" t="n">
-        <v>416.3181449224261</v>
+        <v>379.0013916356612</v>
       </c>
       <c r="F43" t="n">
-        <v>416.3181449224261</v>
+        <v>207.1396174102217</v>
       </c>
       <c r="G43" t="n">
-        <v>250.9436983189284</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H43" t="n">
-        <v>114.9938624999944</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I43" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="J43" t="n">
-        <v>82.48751748488888</v>
+        <v>82.48751748488891</v>
       </c>
       <c r="K43" t="n">
-        <v>260.0387065470031</v>
+        <v>162.2252387275939</v>
       </c>
       <c r="L43" t="n">
-        <v>366.9352291276966</v>
+        <v>453.3626067757001</v>
       </c>
       <c r="M43" t="n">
-        <v>883.7792178609061</v>
+        <v>970.2065955089097</v>
       </c>
       <c r="N43" t="n">
-        <v>1393.633335137328</v>
+        <v>1480.060712785331</v>
       </c>
       <c r="O43" t="n">
-        <v>1493.617430033296</v>
+        <v>1957.747131984503</v>
       </c>
       <c r="P43" t="n">
-        <v>1888.82973026689</v>
+        <v>2040.203227644789</v>
       </c>
       <c r="Q43" t="n">
         <v>2088.2585403362</v>
@@ -7596,25 +7596,25 @@
         <v>2080.90137487636</v>
       </c>
       <c r="S43" t="n">
-        <v>1926.146298186876</v>
+        <v>1926.146298186877</v>
       </c>
       <c r="T43" t="n">
-        <v>1926.146298186876</v>
+        <v>1686.577730940659</v>
       </c>
       <c r="U43" t="n">
-        <v>1798.162855565549</v>
+        <v>1406.441420064723</v>
       </c>
       <c r="V43" t="n">
-        <v>1516.451388173578</v>
+        <v>1406.441420064723</v>
       </c>
       <c r="W43" t="n">
-        <v>1241.598984346091</v>
+        <v>1131.589016237236</v>
       </c>
       <c r="X43" t="n">
-        <v>999.0350877918961</v>
+        <v>889.0251196830412</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.6923194816382</v>
+        <v>662.6823513727833</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>807.1471614611953</v>
+        <v>1316.158913284466</v>
       </c>
       <c r="C44" t="n">
-        <v>380.2464314744954</v>
+        <v>1316.158913284466</v>
       </c>
       <c r="D44" t="n">
-        <v>380.2464314744954</v>
+        <v>892.8662924694663</v>
       </c>
       <c r="E44" t="n">
-        <v>380.2464314744954</v>
+        <v>466.8893526173238</v>
       </c>
       <c r="F44" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="G44" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="H44" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I44" t="n">
-        <v>81.90283658475255</v>
+        <v>81.90283658475198</v>
       </c>
       <c r="J44" t="n">
-        <v>216.4375955691458</v>
+        <v>216.4375955691453</v>
       </c>
       <c r="K44" t="n">
-        <v>426.3153339631743</v>
+        <v>426.3153339631739</v>
       </c>
       <c r="L44" t="n">
-        <v>692.6837634020108</v>
+        <v>692.6837634020104</v>
       </c>
       <c r="M44" t="n">
         <v>994.2162484390929</v>
@@ -7669,31 +7669,31 @@
         <v>1829.34409569416</v>
       </c>
       <c r="Q44" t="n">
-        <v>2001.813423636736</v>
+        <v>2001.813423636737</v>
       </c>
       <c r="R44" t="n">
         <v>2088.2585403362</v>
       </c>
       <c r="S44" t="n">
-        <v>2028.724145497488</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="T44" t="n">
-        <v>2028.724145497488</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="U44" t="n">
-        <v>2028.724145497488</v>
+        <v>2028.724145497489</v>
       </c>
       <c r="V44" t="n">
-        <v>2028.724145497488</v>
+        <v>1736.007277575996</v>
       </c>
       <c r="W44" t="n">
-        <v>1632.332795797835</v>
+        <v>1736.007277575996</v>
       </c>
       <c r="X44" t="n">
-        <v>1632.332795797835</v>
+        <v>1736.007277575996</v>
       </c>
       <c r="Y44" t="n">
-        <v>1226.995525752725</v>
+        <v>1736.007277575996</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>177.9757905910029</v>
       </c>
       <c r="G45" t="n">
-        <v>84.97468873196664</v>
+        <v>84.97468873196665</v>
       </c>
       <c r="H45" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="I45" t="n">
-        <v>64.2908695839844</v>
+        <v>84.7338140594083</v>
       </c>
       <c r="J45" t="n">
-        <v>141.3609502492111</v>
+        <v>161.803894724635</v>
       </c>
       <c r="K45" t="n">
-        <v>285.7861526657231</v>
+        <v>306.2290971411471</v>
       </c>
       <c r="L45" t="n">
-        <v>487.5110734294244</v>
+        <v>507.9540179048485</v>
       </c>
       <c r="M45" t="n">
-        <v>726.0600322888342</v>
+        <v>746.5029767642584</v>
       </c>
       <c r="N45" t="n">
-        <v>973.264077063481</v>
+        <v>993.7070215389051</v>
       </c>
       <c r="O45" t="n">
-        <v>1490.10806579669</v>
+        <v>1216.239710557667</v>
       </c>
       <c r="P45" t="n">
-        <v>1665.568544298133</v>
+        <v>1391.70018905911</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.747358107031</v>
+        <v>1669.291857822125</v>
       </c>
       <c r="R45" t="n">
         <v>1815.368420915258</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.4412401603881</v>
+        <v>790.4108522971621</v>
       </c>
       <c r="C46" t="n">
-        <v>580.4686770393041</v>
+        <v>618.4382891760781</v>
       </c>
       <c r="D46" t="n">
-        <v>417.1519041660748</v>
+        <v>618.4382891760781</v>
       </c>
       <c r="E46" t="n">
-        <v>250.9436983189284</v>
+        <v>452.2300833289316</v>
       </c>
       <c r="F46" t="n">
-        <v>250.9436983189284</v>
+        <v>280.368309103492</v>
       </c>
       <c r="G46" t="n">
-        <v>250.9436983189284</v>
+        <v>114.9938624999944</v>
       </c>
       <c r="H46" t="n">
         <v>114.9938624999944</v>
       </c>
       <c r="I46" t="n">
-        <v>41.765170806724</v>
+        <v>41.76517080672401</v>
       </c>
       <c r="J46" t="n">
-        <v>131.9407011961785</v>
+        <v>82.48751748488891</v>
       </c>
       <c r="K46" t="n">
-        <v>458.9610315529055</v>
+        <v>162.2252387275939</v>
       </c>
       <c r="L46" t="n">
-        <v>942.2464477247639</v>
+        <v>645.5106548994524</v>
       </c>
       <c r="M46" t="n">
-        <v>1055.483313777482</v>
+        <v>1162.354643632662</v>
       </c>
       <c r="N46" t="n">
-        <v>1167.304508212023</v>
+        <v>1672.208760909084</v>
       </c>
       <c r="O46" t="n">
-        <v>1644.990927411195</v>
+        <v>1957.747131984503</v>
       </c>
       <c r="P46" t="n">
         <v>2040.203227644789</v>
@@ -7830,28 +7830,28 @@
         <v>2088.2585403362</v>
       </c>
       <c r="R46" t="n">
-        <v>2080.90137487636</v>
+        <v>2088.2585403362</v>
       </c>
       <c r="S46" t="n">
-        <v>1926.146298186876</v>
+        <v>1933.503463646717</v>
       </c>
       <c r="T46" t="n">
-        <v>1686.577730940658</v>
+        <v>1693.934896400499</v>
       </c>
       <c r="U46" t="n">
-        <v>1406.441420064723</v>
+        <v>1693.934896400499</v>
       </c>
       <c r="V46" t="n">
-        <v>1124.729952672752</v>
+        <v>1412.223429008528</v>
       </c>
       <c r="W46" t="n">
-        <v>942.6072088724538</v>
+        <v>1206.919589319486</v>
       </c>
       <c r="X46" t="n">
-        <v>942.6072088724538</v>
+        <v>1206.919589319486</v>
       </c>
       <c r="Y46" t="n">
-        <v>942.6072088724538</v>
+        <v>980.5768210092278</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>170.1139949031487</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.275927892772224</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>351.434707731549</v>
       </c>
       <c r="M13" t="n">
-        <v>407.6839623035265</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>339.7016059669784</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>170.1139949031485</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>297.2841411257044</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.044809463624446</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,13 +9087,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>351.4347077315495</v>
       </c>
       <c r="M16" t="n">
-        <v>407.6839623035266</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>129.2557152221281</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.22285980771282</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>281.1060907816158</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>5.275927892771534</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>46.25914095805709</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>352.761405420477</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.275927892771751</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>193.8082432308381</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>351.4347077315495</v>
       </c>
       <c r="M22" t="n">
-        <v>256.7050317029077</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>170.1139949031487</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>272.3635797561241</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.9653708332049</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>172.9952005546337</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>107.3930594133253</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>170.1139949031494</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>5.275927892771534</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>33.19934150455934</v>
       </c>
       <c r="K28" t="n">
-        <v>46.25914095805662</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>407.6839623035268</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>170.1139949031487</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>300.3289505893288</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>186.1018641084977</v>
       </c>
       <c r="M31" t="n">
-        <v>407.6839623035267</v>
+        <v>407.6839623035268</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>20.09267795069532</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>193.808243230838</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>5.275927892771534</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,19 +10509,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>46.25914095805709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>407.6839623035266</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>172.365722120249</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>170.1139949031487</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>297.2841411257044</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.044809463624475</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>186.1018641084977</v>
       </c>
       <c r="M37" t="n">
-        <v>124.9679456532297</v>
+        <v>407.6839623035268</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>3.04480946362419</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>297.2841411257044</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>170.1139949031487</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.19934150455934</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>407.6839623035268</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -10998,10 +10998,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.09005501068118</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>300.3289505893291</v>
+        <v>170.1139949031487</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>98.80148264586795</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>186.1018641084977</v>
       </c>
       <c r="M43" t="n">
         <v>407.6839623035268</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.044809463624194</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>297.2841411257044</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>170.1139949031487</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>49.95271081948441</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>407.6839623035268</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>187.4285617974253</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.66994299300174</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>10.0797569512367</v>
+        <v>11.09334059988686</v>
       </c>
       <c r="E8" t="n">
         <v>12.73723279800802</v>
       </c>
       <c r="F8" t="n">
-        <v>14.2837247972137</v>
+        <v>11.89300233688076</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23266,7 +23266,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>79.19908227610895</v>
+        <v>274.94220245167</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.9390508903246</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>255.6155395471329</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>211.0431616347698</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>163.7207021374627</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5903374607446</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.49640477633768</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S13" t="n">
-        <v>73.68121088515812</v>
+        <v>153.2075259225883</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>32.35552722782617</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3479122562093</v>
+        <v>266.7910020640276</v>
       </c>
       <c r="H14" t="n">
         <v>274.94220245167</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.93905089032459</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6155395471329</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>135.9321487321204</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>95.54209182188058</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7207021374627</v>
+        <v>13.52231781189502</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.5903374607446</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.49640477633768</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.2075259225883</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1728815737559</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>50.68052810827231</v>
       </c>
       <c r="G17" t="n">
         <v>398.3479122562093</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.93905089032461</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T17" t="n">
         <v>210.1899979022025</v>
       </c>
       <c r="U17" t="n">
-        <v>238.4934179267977</v>
+        <v>255.6155395471329</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>10.30383737237202</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7207021374627</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>55.12099025279007</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.49640477633768</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.2075259225883</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3349477671762</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>191.2107508901039</v>
+        <v>398.3479122562093</v>
       </c>
       <c r="H20" t="n">
-        <v>274.94220245167</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.93905089032461</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1899979022025</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>390.6223679970086</v>
       </c>
     </row>
     <row r="21">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>153.2075259225883</v>
       </c>
       <c r="T22" t="n">
-        <v>167.8070041480904</v>
+        <v>105.3015876587434</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>278.7421193217192</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3479122562093</v>
+        <v>316.5419961981208</v>
       </c>
       <c r="H23" t="n">
-        <v>274.94220245167</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>210.1899979022025</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6155395471329</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>107.969540165778</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>134.5903374607446</v>
       </c>
       <c r="I25" t="n">
-        <v>72.49640477633768</v>
+        <v>65.99055985288236</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3349477671762</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>95.60598786883344</v>
+        <v>16.97711385074632</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1899979022025</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6155395471329</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>15.41989666722878</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>184.3870956169687</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>132.8420234445551</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.3479122562093</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.1899979022025</v>
       </c>
       <c r="U29" t="n">
         <v>255.6155395471329</v>
       </c>
       <c r="V29" t="n">
-        <v>268.0265202745928</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>22.70349047247137</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>101.5113680117478</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>132.8420234445556</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3479122562093</v>
       </c>
       <c r="H32" t="n">
-        <v>10.2878705488057</v>
+        <v>274.94220245167</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.1899979022025</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6155395471329</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1728815737559</v>
+        <v>14.78414001600657</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>3.267479173449772</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25162,16 +25162,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>340.1096561885282</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.94220245167</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1899979022025</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>340.9799468278602</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25323,7 +25323,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.7207021374627</v>
@@ -25332,7 +25332,7 @@
         <v>134.5903374607446</v>
       </c>
       <c r="I37" t="n">
-        <v>72.49640477633768</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>28.17017015823775</v>
       </c>
       <c r="T37" t="n">
-        <v>22.70349047247123</v>
+        <v>237.1728815737559</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3479122562093</v>
       </c>
       <c r="H38" t="n">
         <v>274.94220245167</v>
@@ -25447,19 +25447,19 @@
         <v>210.1899979022025</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6155395471329</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>309.0611392432247</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>115.066226182364</v>
       </c>
     </row>
     <row r="39">
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7207021374627</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.2075259225883</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>86.97449724818824</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>124.8538787784879</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>32.75791709462749</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>345.4992621464413</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.9390508903246</v>
       </c>
       <c r="T41" t="n">
         <v>210.1899979022025</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6155395471329</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>69.10376402969116</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5903374607446</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.49640477633768</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1728815737559</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>150.631339572062</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>85.77649193140007</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.3479122562093</v>
@@ -25924,16 +25924,16 @@
         <v>255.6155395471329</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>64.12482148273534</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7207021374627</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5903374607446</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.283593805241864</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3349477671762</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>91.80236342691737</v>
+        <v>68.85307849706032</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>388720.5489807851</v>
+        <v>388720.5489807852</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>388720.5489807851</v>
+        <v>388720.5489807852</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>388720.5489807851</v>
+        <v>388720.5489807852</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>388720.5489807851</v>
+        <v>388720.5489807853</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>388720.5489807852</v>
+        <v>388720.5489807853</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>388720.5489807851</v>
+        <v>388720.5489807852</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>388720.5489807853</v>
+        <v>388720.5489807852</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>388720.5489807852</v>
+        <v>388720.5489807853</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>388720.5489807851</v>
+        <v>388720.5489807852</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>388720.5489807851</v>
+        <v>388720.5489807853</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387297.3434282963</v>
+        <v>387297.3434282964</v>
       </c>
       <c r="C2" t="n">
         <v>387297.3434282964</v>
       </c>
       <c r="D2" t="n">
-        <v>389172.5026360921</v>
+        <v>389172.502636092</v>
       </c>
       <c r="E2" t="n">
         <v>226829.0361772488</v>
       </c>
       <c r="F2" t="n">
+        <v>226829.0361772489</v>
+      </c>
+      <c r="G2" t="n">
         <v>226829.0361772488</v>
       </c>
-      <c r="G2" t="n">
-        <v>226829.0361772487</v>
-      </c>
       <c r="H2" t="n">
-        <v>226829.0361772487</v>
+        <v>226829.0361772488</v>
       </c>
       <c r="I2" t="n">
         <v>226829.0361772487</v>
       </c>
       <c r="J2" t="n">
-        <v>226829.0361772487</v>
+        <v>226829.0361772488</v>
       </c>
       <c r="K2" t="n">
-        <v>226829.0361772487</v>
+        <v>226829.0361772488</v>
       </c>
       <c r="L2" t="n">
         <v>226829.0361772487</v>
       </c>
       <c r="M2" t="n">
-        <v>226829.0361772487</v>
+        <v>226829.0361772488</v>
       </c>
       <c r="N2" t="n">
         <v>226829.0361772487</v>
@@ -26355,7 +26355,7 @@
         <v>226829.0361772488</v>
       </c>
       <c r="P2" t="n">
-        <v>226829.0361772487</v>
+        <v>226829.0361772488</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2272.741401196739</v>
+        <v>2272.741401196743</v>
       </c>
       <c r="M3" t="n">
         <v>127862.7589379562</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="C4" t="n">
         <v>309806.3511207717</v>
@@ -26429,37 +26429,37 @@
         <v>27909.48419647817</v>
       </c>
       <c r="F4" t="n">
-        <v>27909.48419647818</v>
+        <v>27909.48419647817</v>
       </c>
       <c r="G4" t="n">
-        <v>27909.48419647818</v>
+        <v>27909.48419647817</v>
       </c>
       <c r="H4" t="n">
-        <v>27909.48419647818</v>
+        <v>27909.48419647817</v>
       </c>
       <c r="I4" t="n">
-        <v>27909.48419647819</v>
+        <v>27909.48419647817</v>
       </c>
       <c r="J4" t="n">
         <v>27909.48419647817</v>
       </c>
       <c r="K4" t="n">
-        <v>27909.48419647818</v>
+        <v>27909.48419647817</v>
       </c>
       <c r="L4" t="n">
-        <v>27909.48419647818</v>
+        <v>27909.48419647817</v>
       </c>
       <c r="M4" t="n">
-        <v>27909.48419647819</v>
+        <v>27909.48419647817</v>
       </c>
       <c r="N4" t="n">
-        <v>27909.48419647818</v>
+        <v>27909.48419647817</v>
       </c>
       <c r="O4" t="n">
-        <v>27909.4841964782</v>
+        <v>27909.48419647817</v>
       </c>
       <c r="P4" t="n">
-        <v>27909.48419647818</v>
+        <v>27909.48419647817</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>35579.45655848663</v>
       </c>
       <c r="E5" t="n">
-        <v>42303.74280570072</v>
+        <v>42303.74280570073</v>
       </c>
       <c r="F5" t="n">
         <v>42303.74280570073</v>
@@ -26493,7 +26493,7 @@
         <v>42303.74280570073</v>
       </c>
       <c r="J5" t="n">
-        <v>42303.74280570072</v>
+        <v>42303.74280570073</v>
       </c>
       <c r="K5" t="n">
         <v>42303.74280570073</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7349.455479844859</v>
+        <v>-7371.127544582664</v>
       </c>
       <c r="C6" t="n">
-        <v>42730.42564099535</v>
+        <v>42708.75357625748</v>
       </c>
       <c r="D6" t="n">
-        <v>33115.49566858285</v>
+        <v>33100.76863794775</v>
       </c>
       <c r="E6" t="n">
-        <v>-334021.6600563857</v>
+        <v>-334637.6591850164</v>
       </c>
       <c r="F6" t="n">
-        <v>156615.8091750699</v>
+        <v>155999.8100464393</v>
       </c>
       <c r="G6" t="n">
-        <v>156615.8091750698</v>
+        <v>155999.8100464392</v>
       </c>
       <c r="H6" t="n">
-        <v>156615.8091750698</v>
+        <v>155999.8100464392</v>
       </c>
       <c r="I6" t="n">
-        <v>156615.8091750698</v>
+        <v>155999.8100464391</v>
       </c>
       <c r="J6" t="n">
-        <v>156615.8091750698</v>
+        <v>155999.8100464392</v>
       </c>
       <c r="K6" t="n">
-        <v>156615.8091750698</v>
+        <v>155999.8100464392</v>
       </c>
       <c r="L6" t="n">
-        <v>154343.0677738731</v>
+        <v>153727.0686452424</v>
       </c>
       <c r="M6" t="n">
-        <v>28753.05023711361</v>
+        <v>28137.05110848296</v>
       </c>
       <c r="N6" t="n">
-        <v>156615.8091750698</v>
+        <v>155999.8100464391</v>
       </c>
       <c r="O6" t="n">
-        <v>156615.8091750698</v>
+        <v>155999.8100464392</v>
       </c>
       <c r="P6" t="n">
-        <v>156615.8091750698</v>
+        <v>155999.8100464392</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>484.5051831463527</v>
       </c>
       <c r="F3" t="n">
+        <v>484.5051831463528</v>
+      </c>
+      <c r="G3" t="n">
         <v>484.5051831463527</v>
       </c>
-      <c r="G3" t="n">
-        <v>484.5051831463526</v>
-      </c>
       <c r="H3" t="n">
-        <v>484.5051831463526</v>
+        <v>484.5051831463527</v>
       </c>
       <c r="I3" t="n">
-        <v>484.5051831463526</v>
+        <v>484.5051831463527</v>
       </c>
       <c r="J3" t="n">
-        <v>484.5051831463526</v>
+        <v>484.5051831463527</v>
       </c>
       <c r="K3" t="n">
-        <v>484.5051831463526</v>
+        <v>484.5051831463527</v>
       </c>
       <c r="L3" t="n">
-        <v>484.5051831463526</v>
+        <v>484.5051831463527</v>
       </c>
       <c r="M3" t="n">
-        <v>484.5051831463526</v>
+        <v>484.5051831463527</v>
       </c>
       <c r="N3" t="n">
-        <v>484.5051831463526</v>
+        <v>484.5051831463527</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5051831463526</v>
+        <v>484.5051831463527</v>
       </c>
       <c r="P3" t="n">
-        <v>484.5051831463526</v>
+        <v>484.5051831463527</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>8.979937655612986</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0646350840499</v>
+        <v>522.06463508405</v>
       </c>
       <c r="F4" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="G4" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="H4" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="I4" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0646350840499</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="K4" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="L4" t="n">
         <v>522.06463508405</v>
       </c>
       <c r="M4" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="N4" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="O4" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="P4" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>12.51879277504788</v>
       </c>
       <c r="E3" t="n">
-        <v>420.0154423653729</v>
+        <v>420.015442365373</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>8.979937655612986</v>
       </c>
       <c r="E4" t="n">
-        <v>513.0846974284369</v>
+        <v>513.084697428437</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.979937655612957</v>
+        <v>8.979937655612972</v>
       </c>
       <c r="M4" t="n">
-        <v>513.0846974284369</v>
+        <v>513.084697428437</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>8.979937655612986</v>
       </c>
       <c r="M4" t="n">
-        <v>513.0846974284369</v>
+        <v>513.084697428437</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27876,10 +27876,10 @@
         <v>24.55296493005908</v>
       </c>
       <c r="J8" t="n">
-        <v>16.39593277291937</v>
+        <v>8.03034542826965</v>
       </c>
       <c r="K8" t="n">
-        <v>3.400712457054779</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0.2941343268911112</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.128025379424045</v>
+        <v>17.10796303503703</v>
       </c>
       <c r="R8" t="n">
         <v>18.74720796782874</v>
@@ -27955,7 +27955,7 @@
         <v>2.416557913908793</v>
       </c>
       <c r="J9" t="n">
-        <v>7.505703897832523</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,13 +27985,13 @@
         <v>77.93445730202359</v>
       </c>
       <c r="T9" t="n">
-        <v>130.92208480499</v>
+        <v>139.902022460603</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9113882128454</v>
+        <v>178.5679710561339</v>
       </c>
       <c r="V9" t="n">
-        <v>200.0542240731954</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
@@ -31764,10 +31764,10 @@
         <v>165.3136554294181</v>
       </c>
       <c r="K11" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L11" t="n">
-        <v>307.3710620678113</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M11" t="n">
         <v>342.0095306136563</v>
@@ -31776,16 +31776,16 @@
         <v>347.543602378941</v>
       </c>
       <c r="O11" t="n">
-        <v>328.1755685501509</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P11" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R11" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S11" t="n">
         <v>44.38457029526639</v>
@@ -31794,7 +31794,7 @@
         <v>8.526317343610687</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I12" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J12" t="n">
-        <v>98.45968066184514</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K12" t="n">
         <v>168.283276678295</v>
@@ -31852,7 +31852,7 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N12" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O12" t="n">
         <v>247.9523836805679</v>
@@ -31867,10 +31867,10 @@
         <v>64.70429596811105</v>
       </c>
       <c r="S12" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T12" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U12" t="n">
         <v>0.06856205421882353</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8736978712475212</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H13" t="n">
-        <v>7.767968346182512</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I13" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J13" t="n">
-        <v>61.77043949719974</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K13" t="n">
         <v>101.5078072231211</v>
@@ -31928,19 +31928,19 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M13" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N13" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O13" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P13" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R13" t="n">
         <v>39.28463337445672</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.947759530236592</v>
+        <v>1.947759530236593</v>
       </c>
       <c r="H14" t="n">
         <v>19.94749228903551</v>
       </c>
       <c r="I14" t="n">
-        <v>75.0909992894463</v>
+        <v>75.09099928944632</v>
       </c>
       <c r="J14" t="n">
-        <v>165.3136554294181</v>
+        <v>165.3136554294182</v>
       </c>
       <c r="K14" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L14" t="n">
-        <v>307.3710620678113</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M14" t="n">
-        <v>342.0095306136563</v>
+        <v>342.0095306136564</v>
       </c>
       <c r="N14" t="n">
-        <v>347.543602378941</v>
+        <v>347.5436023789411</v>
       </c>
       <c r="O14" t="n">
-        <v>328.1755685501509</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P14" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q14" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R14" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S14" t="n">
-        <v>44.38457029526639</v>
+        <v>44.3845702952664</v>
       </c>
       <c r="T14" t="n">
-        <v>8.526317343610687</v>
+        <v>8.526317343610689</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I15" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J15" t="n">
-        <v>98.45968066184514</v>
+        <v>98.45968066184517</v>
       </c>
       <c r="K15" t="n">
         <v>168.283276678295</v>
       </c>
       <c r="L15" t="n">
-        <v>226.2776329401905</v>
+        <v>226.2776329401906</v>
       </c>
       <c r="M15" t="n">
         <v>264.0553248147622</v>
       </c>
       <c r="N15" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O15" t="n">
         <v>247.9523836805679</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0036477719425</v>
+        <v>199.0036477719426</v>
       </c>
       <c r="Q15" t="n">
         <v>133.028668398976</v>
       </c>
       <c r="R15" t="n">
-        <v>64.70429596811105</v>
+        <v>64.70429596811107</v>
       </c>
       <c r="S15" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T15" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806586</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06856205421882353</v>
+        <v>0.06856205421882354</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8736978712475212</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H16" t="n">
-        <v>7.767968346182512</v>
+        <v>7.767968346182514</v>
       </c>
       <c r="I16" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J16" t="n">
-        <v>61.77043949719974</v>
+        <v>61.77043949719976</v>
       </c>
       <c r="K16" t="n">
         <v>101.5078072231211</v>
@@ -32165,19 +32165,19 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M16" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N16" t="n">
-        <v>133.6996024246321</v>
+        <v>133.6996024246322</v>
       </c>
       <c r="O16" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P16" t="n">
-        <v>105.6697861734274</v>
+        <v>105.6697861734275</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R16" t="n">
         <v>39.28463337445672</v>
@@ -32186,10 +32186,10 @@
         <v>15.22617108346816</v>
       </c>
       <c r="T16" t="n">
-        <v>3.733072722603044</v>
+        <v>3.733072722603045</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04765624752259212</v>
+        <v>0.04765624752259213</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>1.947759530236592</v>
       </c>
       <c r="H17" t="n">
-        <v>19.9474922890355</v>
+        <v>19.94749228903551</v>
       </c>
       <c r="I17" t="n">
-        <v>75.09099928944629</v>
+        <v>75.0909992894463</v>
       </c>
       <c r="J17" t="n">
         <v>165.3136554294181</v>
       </c>
       <c r="K17" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L17" t="n">
-        <v>307.3710620678112</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M17" t="n">
-        <v>342.0095306136562</v>
+        <v>342.0095306136563</v>
       </c>
       <c r="N17" t="n">
         <v>347.543602378941</v>
       </c>
       <c r="O17" t="n">
-        <v>328.1755685501508</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P17" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q17" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R17" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S17" t="n">
         <v>44.38457029526639</v>
       </c>
       <c r="T17" t="n">
-        <v>8.526317343610685</v>
+        <v>8.526317343610687</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,10 +32311,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I18" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J18" t="n">
-        <v>98.45968066184513</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K18" t="n">
         <v>168.283276678295</v>
@@ -32326,28 +32326,28 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N18" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O18" t="n">
-        <v>247.9523836805678</v>
+        <v>247.9523836805679</v>
       </c>
       <c r="P18" t="n">
         <v>199.0036477719425</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.0286683989759</v>
+        <v>133.028668398976</v>
       </c>
       <c r="R18" t="n">
-        <v>64.70429596811104</v>
+        <v>64.70429596811105</v>
       </c>
       <c r="S18" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T18" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06856205421882351</v>
+        <v>0.06856205421882353</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8736978712475211</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H19" t="n">
-        <v>7.767968346182511</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I19" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J19" t="n">
-        <v>61.77043949719973</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K19" t="n">
         <v>101.5078072231211</v>
@@ -32402,22 +32402,22 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M19" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N19" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O19" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P19" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R19" t="n">
-        <v>39.28463337445671</v>
+        <v>39.28463337445672</v>
       </c>
       <c r="S19" t="n">
         <v>15.22617108346816</v>
@@ -32426,7 +32426,7 @@
         <v>3.733072722603044</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04765624752259211</v>
+        <v>0.04765624752259212</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>1.947759530236592</v>
       </c>
       <c r="H20" t="n">
-        <v>19.9474922890355</v>
+        <v>19.94749228903551</v>
       </c>
       <c r="I20" t="n">
-        <v>75.09099928944629</v>
+        <v>75.0909992894463</v>
       </c>
       <c r="J20" t="n">
         <v>165.3136554294181</v>
       </c>
       <c r="K20" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L20" t="n">
-        <v>307.3710620678112</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M20" t="n">
-        <v>342.0095306136562</v>
+        <v>342.0095306136563</v>
       </c>
       <c r="N20" t="n">
         <v>347.543602378941</v>
       </c>
       <c r="O20" t="n">
-        <v>328.1755685501508</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P20" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q20" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R20" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S20" t="n">
         <v>44.38457029526639</v>
       </c>
       <c r="T20" t="n">
-        <v>8.526317343610685</v>
+        <v>8.526317343610687</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,10 +32548,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I21" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J21" t="n">
-        <v>98.45968066184513</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K21" t="n">
         <v>168.283276678295</v>
@@ -32563,28 +32563,28 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N21" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O21" t="n">
-        <v>247.9523836805678</v>
+        <v>247.9523836805679</v>
       </c>
       <c r="P21" t="n">
         <v>199.0036477719425</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.0286683989759</v>
+        <v>133.028668398976</v>
       </c>
       <c r="R21" t="n">
-        <v>64.70429596811104</v>
+        <v>64.70429596811105</v>
       </c>
       <c r="S21" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T21" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06856205421882351</v>
+        <v>0.06856205421882353</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8736978712475211</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H22" t="n">
-        <v>7.767968346182511</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I22" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J22" t="n">
-        <v>61.77043949719973</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K22" t="n">
         <v>101.5078072231211</v>
@@ -32639,22 +32639,22 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M22" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N22" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O22" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P22" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R22" t="n">
-        <v>39.28463337445671</v>
+        <v>39.28463337445672</v>
       </c>
       <c r="S22" t="n">
         <v>15.22617108346816</v>
@@ -32663,7 +32663,7 @@
         <v>3.733072722603044</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04765624752259211</v>
+        <v>0.04765624752259212</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>1.947759530236592</v>
       </c>
       <c r="H23" t="n">
-        <v>19.9474922890355</v>
+        <v>19.94749228903551</v>
       </c>
       <c r="I23" t="n">
-        <v>75.09099928944629</v>
+        <v>75.0909992894463</v>
       </c>
       <c r="J23" t="n">
         <v>165.3136554294181</v>
       </c>
       <c r="K23" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L23" t="n">
-        <v>307.3710620678112</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M23" t="n">
-        <v>342.0095306136562</v>
+        <v>342.0095306136563</v>
       </c>
       <c r="N23" t="n">
         <v>347.543602378941</v>
       </c>
       <c r="O23" t="n">
-        <v>328.1755685501508</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P23" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R23" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S23" t="n">
         <v>44.38457029526639</v>
       </c>
       <c r="T23" t="n">
-        <v>8.526317343610685</v>
+        <v>8.526317343610687</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,10 +32785,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I24" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J24" t="n">
-        <v>98.45968066184513</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K24" t="n">
         <v>168.283276678295</v>
@@ -32800,28 +32800,28 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N24" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O24" t="n">
-        <v>247.9523836805678</v>
+        <v>247.9523836805679</v>
       </c>
       <c r="P24" t="n">
         <v>199.0036477719425</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.0286683989759</v>
+        <v>133.028668398976</v>
       </c>
       <c r="R24" t="n">
-        <v>64.70429596811104</v>
+        <v>64.70429596811105</v>
       </c>
       <c r="S24" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T24" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06856205421882351</v>
+        <v>0.06856205421882353</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8736978712475211</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H25" t="n">
-        <v>7.767968346182511</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I25" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J25" t="n">
-        <v>61.77043949719973</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K25" t="n">
         <v>101.5078072231211</v>
@@ -32876,22 +32876,22 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M25" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N25" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O25" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P25" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R25" t="n">
-        <v>39.28463337445671</v>
+        <v>39.28463337445672</v>
       </c>
       <c r="S25" t="n">
         <v>15.22617108346816</v>
@@ -32900,7 +32900,7 @@
         <v>3.733072722603044</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04765624752259211</v>
+        <v>0.04765624752259212</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>1.947759530236592</v>
       </c>
       <c r="H26" t="n">
-        <v>19.9474922890355</v>
+        <v>19.94749228903551</v>
       </c>
       <c r="I26" t="n">
-        <v>75.09099928944629</v>
+        <v>75.0909992894463</v>
       </c>
       <c r="J26" t="n">
         <v>165.3136554294181</v>
       </c>
       <c r="K26" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L26" t="n">
-        <v>307.3710620678112</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M26" t="n">
-        <v>342.0095306136562</v>
+        <v>342.0095306136563</v>
       </c>
       <c r="N26" t="n">
         <v>347.543602378941</v>
       </c>
       <c r="O26" t="n">
-        <v>328.1755685501508</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P26" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R26" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S26" t="n">
         <v>44.38457029526639</v>
       </c>
       <c r="T26" t="n">
-        <v>8.526317343610685</v>
+        <v>8.526317343610687</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,10 +33022,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I27" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J27" t="n">
-        <v>98.45968066184513</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K27" t="n">
         <v>168.283276678295</v>
@@ -33037,28 +33037,28 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N27" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O27" t="n">
-        <v>247.9523836805678</v>
+        <v>247.9523836805679</v>
       </c>
       <c r="P27" t="n">
         <v>199.0036477719425</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.0286683989759</v>
+        <v>133.028668398976</v>
       </c>
       <c r="R27" t="n">
-        <v>64.70429596811104</v>
+        <v>64.70429596811105</v>
       </c>
       <c r="S27" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T27" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06856205421882351</v>
+        <v>0.06856205421882353</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8736978712475211</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H28" t="n">
-        <v>7.767968346182511</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I28" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J28" t="n">
-        <v>61.77043949719973</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K28" t="n">
         <v>101.5078072231211</v>
@@ -33113,22 +33113,22 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M28" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N28" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O28" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P28" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R28" t="n">
-        <v>39.28463337445671</v>
+        <v>39.28463337445672</v>
       </c>
       <c r="S28" t="n">
         <v>15.22617108346816</v>
@@ -33137,7 +33137,7 @@
         <v>3.733072722603044</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04765624752259211</v>
+        <v>0.04765624752259212</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>1.947759530236592</v>
       </c>
       <c r="H29" t="n">
-        <v>19.9474922890355</v>
+        <v>19.94749228903551</v>
       </c>
       <c r="I29" t="n">
-        <v>75.09099928944629</v>
+        <v>75.0909992894463</v>
       </c>
       <c r="J29" t="n">
         <v>165.3136554294181</v>
       </c>
       <c r="K29" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L29" t="n">
-        <v>307.3710620678112</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M29" t="n">
-        <v>342.0095306136562</v>
+        <v>342.0095306136563</v>
       </c>
       <c r="N29" t="n">
         <v>347.543602378941</v>
       </c>
       <c r="O29" t="n">
-        <v>328.1755685501508</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P29" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R29" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S29" t="n">
         <v>44.38457029526639</v>
       </c>
       <c r="T29" t="n">
-        <v>8.526317343610685</v>
+        <v>8.526317343610687</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,10 +33259,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I30" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J30" t="n">
-        <v>98.45968066184513</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K30" t="n">
         <v>168.283276678295</v>
@@ -33274,28 +33274,28 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N30" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O30" t="n">
-        <v>247.9523836805678</v>
+        <v>247.9523836805679</v>
       </c>
       <c r="P30" t="n">
         <v>199.0036477719425</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.0286683989759</v>
+        <v>133.028668398976</v>
       </c>
       <c r="R30" t="n">
-        <v>64.70429596811104</v>
+        <v>64.70429596811105</v>
       </c>
       <c r="S30" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T30" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06856205421882351</v>
+        <v>0.06856205421882353</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8736978712475211</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H31" t="n">
-        <v>7.767968346182511</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I31" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J31" t="n">
-        <v>61.77043949719973</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K31" t="n">
         <v>101.5078072231211</v>
@@ -33350,22 +33350,22 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M31" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N31" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O31" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P31" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R31" t="n">
-        <v>39.28463337445671</v>
+        <v>39.28463337445672</v>
       </c>
       <c r="S31" t="n">
         <v>15.22617108346816</v>
@@ -33374,7 +33374,7 @@
         <v>3.733072722603044</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04765624752259211</v>
+        <v>0.04765624752259212</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>1.947759530236592</v>
       </c>
       <c r="H32" t="n">
-        <v>19.9474922890355</v>
+        <v>19.94749228903551</v>
       </c>
       <c r="I32" t="n">
-        <v>75.09099928944629</v>
+        <v>75.0909992894463</v>
       </c>
       <c r="J32" t="n">
         <v>165.3136554294181</v>
       </c>
       <c r="K32" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L32" t="n">
-        <v>307.3710620678112</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M32" t="n">
-        <v>342.0095306136562</v>
+        <v>342.0095306136563</v>
       </c>
       <c r="N32" t="n">
         <v>347.543602378941</v>
       </c>
       <c r="O32" t="n">
-        <v>328.1755685501508</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P32" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R32" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S32" t="n">
         <v>44.38457029526639</v>
       </c>
       <c r="T32" t="n">
-        <v>8.526317343610685</v>
+        <v>8.526317343610687</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,10 +33496,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I33" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J33" t="n">
-        <v>98.45968066184513</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K33" t="n">
         <v>168.283276678295</v>
@@ -33511,28 +33511,28 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N33" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O33" t="n">
-        <v>247.9523836805678</v>
+        <v>247.9523836805679</v>
       </c>
       <c r="P33" t="n">
         <v>199.0036477719425</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.0286683989759</v>
+        <v>133.028668398976</v>
       </c>
       <c r="R33" t="n">
-        <v>64.70429596811104</v>
+        <v>64.70429596811105</v>
       </c>
       <c r="S33" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T33" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06856205421882351</v>
+        <v>0.06856205421882353</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8736978712475211</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H34" t="n">
-        <v>7.767968346182511</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I34" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J34" t="n">
-        <v>61.77043949719973</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K34" t="n">
         <v>101.5078072231211</v>
@@ -33587,22 +33587,22 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M34" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N34" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O34" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P34" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R34" t="n">
-        <v>39.28463337445671</v>
+        <v>39.28463337445672</v>
       </c>
       <c r="S34" t="n">
         <v>15.22617108346816</v>
@@ -33611,7 +33611,7 @@
         <v>3.733072722603044</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04765624752259211</v>
+        <v>0.04765624752259212</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.947759530236592</v>
       </c>
       <c r="H35" t="n">
-        <v>19.9474922890355</v>
+        <v>19.94749228903551</v>
       </c>
       <c r="I35" t="n">
-        <v>75.09099928944629</v>
+        <v>75.0909992894463</v>
       </c>
       <c r="J35" t="n">
         <v>165.3136554294181</v>
       </c>
       <c r="K35" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L35" t="n">
-        <v>307.3710620678112</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M35" t="n">
-        <v>342.0095306136562</v>
+        <v>342.0095306136563</v>
       </c>
       <c r="N35" t="n">
         <v>347.543602378941</v>
       </c>
       <c r="O35" t="n">
-        <v>328.1755685501508</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P35" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R35" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S35" t="n">
         <v>44.38457029526639</v>
       </c>
       <c r="T35" t="n">
-        <v>8.526317343610685</v>
+        <v>8.526317343610687</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,10 +33733,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I36" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J36" t="n">
-        <v>98.45968066184513</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K36" t="n">
         <v>168.283276678295</v>
@@ -33748,28 +33748,28 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N36" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O36" t="n">
-        <v>247.9523836805678</v>
+        <v>247.9523836805679</v>
       </c>
       <c r="P36" t="n">
         <v>199.0036477719425</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.0286683989759</v>
+        <v>133.028668398976</v>
       </c>
       <c r="R36" t="n">
-        <v>64.70429596811104</v>
+        <v>64.70429596811105</v>
       </c>
       <c r="S36" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T36" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06856205421882351</v>
+        <v>0.06856205421882353</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8736978712475211</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H37" t="n">
-        <v>7.767968346182511</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I37" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J37" t="n">
-        <v>61.77043949719973</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K37" t="n">
         <v>101.5078072231211</v>
@@ -33824,22 +33824,22 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M37" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N37" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O37" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P37" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R37" t="n">
-        <v>39.28463337445671</v>
+        <v>39.28463337445672</v>
       </c>
       <c r="S37" t="n">
         <v>15.22617108346816</v>
@@ -33848,7 +33848,7 @@
         <v>3.733072722603044</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04765624752259211</v>
+        <v>0.04765624752259212</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.947759530236592</v>
       </c>
       <c r="H38" t="n">
-        <v>19.9474922890355</v>
+        <v>19.94749228903551</v>
       </c>
       <c r="I38" t="n">
-        <v>75.09099928944629</v>
+        <v>75.0909992894463</v>
       </c>
       <c r="J38" t="n">
         <v>165.3136554294181</v>
       </c>
       <c r="K38" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L38" t="n">
-        <v>307.3710620678112</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M38" t="n">
-        <v>342.0095306136562</v>
+        <v>342.0095306136563</v>
       </c>
       <c r="N38" t="n">
         <v>347.543602378941</v>
       </c>
       <c r="O38" t="n">
-        <v>328.1755685501508</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P38" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q38" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R38" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S38" t="n">
         <v>44.38457029526639</v>
       </c>
       <c r="T38" t="n">
-        <v>8.526317343610685</v>
+        <v>8.526317343610687</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,10 +33970,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I39" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J39" t="n">
-        <v>98.45968066184513</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K39" t="n">
         <v>168.283276678295</v>
@@ -33985,28 +33985,28 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N39" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O39" t="n">
-        <v>247.9523836805678</v>
+        <v>247.9523836805679</v>
       </c>
       <c r="P39" t="n">
         <v>199.0036477719425</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.0286683989759</v>
+        <v>133.028668398976</v>
       </c>
       <c r="R39" t="n">
-        <v>64.70429596811104</v>
+        <v>64.70429596811105</v>
       </c>
       <c r="S39" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T39" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06856205421882351</v>
+        <v>0.06856205421882353</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8736978712475211</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H40" t="n">
-        <v>7.767968346182511</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I40" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J40" t="n">
-        <v>61.77043949719973</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K40" t="n">
         <v>101.5078072231211</v>
@@ -34061,22 +34061,22 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M40" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N40" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O40" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P40" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R40" t="n">
-        <v>39.28463337445671</v>
+        <v>39.28463337445672</v>
       </c>
       <c r="S40" t="n">
         <v>15.22617108346816</v>
@@ -34085,7 +34085,7 @@
         <v>3.733072722603044</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04765624752259211</v>
+        <v>0.04765624752259212</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>1.947759530236592</v>
       </c>
       <c r="H41" t="n">
-        <v>19.9474922890355</v>
+        <v>19.94749228903551</v>
       </c>
       <c r="I41" t="n">
-        <v>75.09099928944629</v>
+        <v>75.0909992894463</v>
       </c>
       <c r="J41" t="n">
         <v>165.3136554294181</v>
       </c>
       <c r="K41" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L41" t="n">
-        <v>307.3710620678112</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M41" t="n">
-        <v>342.0095306136562</v>
+        <v>342.0095306136563</v>
       </c>
       <c r="N41" t="n">
         <v>347.543602378941</v>
       </c>
       <c r="O41" t="n">
-        <v>328.1755685501508</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P41" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R41" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S41" t="n">
         <v>44.38457029526639</v>
       </c>
       <c r="T41" t="n">
-        <v>8.526317343610685</v>
+        <v>8.526317343610687</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,10 +34207,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I42" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J42" t="n">
-        <v>98.45968066184513</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K42" t="n">
         <v>168.283276678295</v>
@@ -34222,28 +34222,28 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N42" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O42" t="n">
-        <v>247.9523836805678</v>
+        <v>247.9523836805679</v>
       </c>
       <c r="P42" t="n">
         <v>199.0036477719425</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.0286683989759</v>
+        <v>133.028668398976</v>
       </c>
       <c r="R42" t="n">
-        <v>64.70429596811104</v>
+        <v>64.70429596811105</v>
       </c>
       <c r="S42" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T42" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06856205421882351</v>
+        <v>0.06856205421882353</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8736978712475211</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H43" t="n">
-        <v>7.767968346182511</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I43" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J43" t="n">
-        <v>61.77043949719973</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K43" t="n">
         <v>101.5078072231211</v>
@@ -34298,22 +34298,22 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M43" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N43" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O43" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P43" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R43" t="n">
-        <v>39.28463337445671</v>
+        <v>39.28463337445672</v>
       </c>
       <c r="S43" t="n">
         <v>15.22617108346816</v>
@@ -34322,7 +34322,7 @@
         <v>3.733072722603044</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04765624752259211</v>
+        <v>0.04765624752259212</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>1.947759530236592</v>
       </c>
       <c r="H44" t="n">
-        <v>19.9474922890355</v>
+        <v>19.94749228903551</v>
       </c>
       <c r="I44" t="n">
-        <v>75.09099928944688</v>
+        <v>75.0909992894463</v>
       </c>
       <c r="J44" t="n">
         <v>165.3136554294181</v>
       </c>
       <c r="K44" t="n">
-        <v>247.7623163443331</v>
+        <v>247.7623163443332</v>
       </c>
       <c r="L44" t="n">
-        <v>307.3710620678112</v>
+        <v>307.3710620678114</v>
       </c>
       <c r="M44" t="n">
-        <v>342.0095306136562</v>
+        <v>342.0095306136565</v>
       </c>
       <c r="N44" t="n">
         <v>347.543602378941</v>
       </c>
       <c r="O44" t="n">
-        <v>328.1755685501508</v>
+        <v>328.175568550151</v>
       </c>
       <c r="P44" t="n">
         <v>280.090255147435</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.3361169708369</v>
+        <v>210.336116970837</v>
       </c>
       <c r="R44" t="n">
-        <v>122.3509495912244</v>
+        <v>122.3509495912245</v>
       </c>
       <c r="S44" t="n">
         <v>44.38457029526639</v>
       </c>
       <c r="T44" t="n">
-        <v>8.526317343610685</v>
+        <v>8.526317343610687</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1558207624189273</v>
+        <v>0.1558207624189274</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,10 +34444,10 @@
         <v>10.06490955932329</v>
       </c>
       <c r="I45" t="n">
-        <v>35.88080837451763</v>
+        <v>35.88080837451764</v>
       </c>
       <c r="J45" t="n">
-        <v>98.45968066184513</v>
+        <v>98.45968066184516</v>
       </c>
       <c r="K45" t="n">
         <v>168.283276678295</v>
@@ -34459,28 +34459,28 @@
         <v>264.0553248147622</v>
       </c>
       <c r="N45" t="n">
-        <v>271.0440835414676</v>
+        <v>271.0440835414677</v>
       </c>
       <c r="O45" t="n">
-        <v>247.9523836805678</v>
+        <v>247.9523836805679</v>
       </c>
       <c r="P45" t="n">
         <v>199.0036477719425</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.0286683989759</v>
+        <v>133.028668398976</v>
       </c>
       <c r="R45" t="n">
-        <v>64.70429596811104</v>
+        <v>64.70429596811105</v>
       </c>
       <c r="S45" t="n">
-        <v>19.35735330778115</v>
+        <v>19.35735330778116</v>
       </c>
       <c r="T45" t="n">
-        <v>4.200568521806584</v>
+        <v>4.200568521806585</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06856205421882351</v>
+        <v>0.06856205421882353</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8736978712475211</v>
+        <v>0.8736978712475213</v>
       </c>
       <c r="H46" t="n">
-        <v>7.767968346182511</v>
+        <v>7.767968346182513</v>
       </c>
       <c r="I46" t="n">
         <v>26.2744778007891</v>
       </c>
       <c r="J46" t="n">
-        <v>61.77043949719973</v>
+        <v>61.77043949719975</v>
       </c>
       <c r="K46" t="n">
         <v>101.5078072231211</v>
@@ -34535,22 +34535,22 @@
         <v>129.8950453307451</v>
       </c>
       <c r="M46" t="n">
-        <v>136.9561126720091</v>
+        <v>136.9561126720092</v>
       </c>
       <c r="N46" t="n">
         <v>133.6996024246321</v>
       </c>
       <c r="O46" t="n">
-        <v>123.4932227468769</v>
+        <v>123.493222746877</v>
       </c>
       <c r="P46" t="n">
         <v>105.6697861734274</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.16028265509925</v>
+        <v>73.16028265509927</v>
       </c>
       <c r="R46" t="n">
-        <v>39.28463337445671</v>
+        <v>39.28463337445672</v>
       </c>
       <c r="S46" t="n">
         <v>15.22617108346816</v>
@@ -34559,7 +34559,7 @@
         <v>3.733072722603044</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04765624752259211</v>
+        <v>0.04765624752259212</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8.979937655612986</v>
+        <v>0.6143503109632654</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6143503109632664</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>2.600378746450325</v>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L11" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M11" t="n">
         <v>304.5782677142245</v>
@@ -35424,7 +35424,7 @@
         <v>310.263979544495</v>
       </c>
       <c r="O11" t="n">
-        <v>290.7846091941268</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P11" t="n">
         <v>242.5148933372037</v>
@@ -35433,7 +35433,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.70842162451763</v>
+        <v>43.40266995220637</v>
       </c>
       <c r="J12" t="n">
-        <v>372.9015890250685</v>
+        <v>247.9625612316605</v>
       </c>
       <c r="K12" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L12" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M12" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N12" t="n">
         <v>249.701055327926</v>
       </c>
       <c r="O12" t="n">
-        <v>224.7804939583456</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P12" t="n">
-        <v>177.2328065671138</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q12" t="n">
         <v>110.2816301099975</v>
       </c>
       <c r="R12" t="n">
-        <v>46.30730446673913</v>
+        <v>147.5520839324576</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13368351329787</v>
+        <v>119.8424882084705</v>
       </c>
       <c r="K13" t="n">
         <v>330.323566016896</v>
       </c>
       <c r="L13" t="n">
-        <v>488.1670870422813</v>
+        <v>459.410993166593</v>
       </c>
       <c r="M13" t="n">
-        <v>522.0646350840499</v>
+        <v>114.3806727805234</v>
       </c>
       <c r="N13" t="n">
         <v>112.9507014490317</v>
       </c>
       <c r="O13" t="n">
-        <v>440.6956412154308</v>
+        <v>482.5115345446175</v>
       </c>
       <c r="P13" t="n">
-        <v>83.28898551544094</v>
+        <v>399.2043436702971</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.54071989031431</v>
+        <v>48.54071989031432</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.5430967454828</v>
+        <v>40.54309674548281</v>
       </c>
       <c r="J14" t="n">
         <v>135.8936959438316</v>
@@ -35652,16 +35652,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L14" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M14" t="n">
         <v>304.5782677142245</v>
       </c>
       <c r="N14" t="n">
-        <v>310.263979544495</v>
+        <v>310.2639795444951</v>
       </c>
       <c r="O14" t="n">
-        <v>290.7846091941268</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P14" t="n">
         <v>242.5148933372037</v>
@@ -35670,7 +35670,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.70842162451763</v>
+        <v>43.40266995220637</v>
       </c>
       <c r="J15" t="n">
-        <v>77.84856632851181</v>
+        <v>247.9625612316603</v>
       </c>
       <c r="K15" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L15" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M15" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N15" t="n">
-        <v>249.701055327926</v>
+        <v>249.7010553279261</v>
       </c>
       <c r="O15" t="n">
-        <v>522.06463508405</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P15" t="n">
-        <v>177.2328065671138</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.3264395736219</v>
+        <v>110.2816301099975</v>
       </c>
       <c r="R15" t="n">
-        <v>41.03137657396691</v>
+        <v>147.5520839324576</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>119.8424882084705</v>
       </c>
       <c r="K16" t="n">
-        <v>80.54315277040908</v>
+        <v>330.3235660168961</v>
       </c>
       <c r="L16" t="n">
-        <v>488.1670870422813</v>
+        <v>459.4109931665934</v>
       </c>
       <c r="M16" t="n">
-        <v>522.06463508405</v>
+        <v>114.3806727805234</v>
       </c>
       <c r="N16" t="n">
-        <v>112.9507014490317</v>
+        <v>112.9507014490318</v>
       </c>
       <c r="O16" t="n">
-        <v>482.5115345446174</v>
+        <v>482.5115345446175</v>
       </c>
       <c r="P16" t="n">
-        <v>212.544700737569</v>
+        <v>399.2043436702971</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.54071989031431</v>
+        <v>48.54071989031432</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>40.54309674548279</v>
+        <v>40.5430967454828</v>
       </c>
       <c r="J17" t="n">
         <v>135.8936959438316</v>
@@ -35889,16 +35889,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L17" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M17" t="n">
-        <v>304.5782677142244</v>
+        <v>304.5782677142245</v>
       </c>
       <c r="N17" t="n">
         <v>310.263979544495</v>
       </c>
       <c r="O17" t="n">
-        <v>290.7846091941267</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P17" t="n">
         <v>242.5148933372037</v>
@@ -35907,7 +35907,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.93128143223044</v>
+        <v>19.70842162451764</v>
       </c>
       <c r="J18" t="n">
-        <v>77.84856632851179</v>
+        <v>372.9015890250685</v>
       </c>
       <c r="K18" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L18" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M18" t="n">
-        <v>522.06463508405</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N18" t="n">
         <v>249.701055327926</v>
       </c>
       <c r="O18" t="n">
-        <v>224.7804939583456</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P18" t="n">
-        <v>177.2328065671138</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.2816301099974</v>
+        <v>110.2816301099975</v>
       </c>
       <c r="R18" t="n">
-        <v>41.0313765739669</v>
+        <v>46.30730446673844</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>119.8424882084705</v>
       </c>
       <c r="K19" t="n">
-        <v>80.54315277040907</v>
+        <v>330.323566016896</v>
       </c>
       <c r="L19" t="n">
-        <v>154.235426393101</v>
+        <v>488.1670870422813</v>
       </c>
       <c r="M19" t="n">
-        <v>114.3806727805233</v>
+        <v>114.3806727805234</v>
       </c>
       <c r="N19" t="n">
-        <v>515.0041588650723</v>
+        <v>112.9507014490317</v>
       </c>
       <c r="O19" t="n">
-        <v>482.5115345446174</v>
+        <v>453.7554406689295</v>
       </c>
       <c r="P19" t="n">
         <v>399.2043436702971</v>
       </c>
       <c r="Q19" t="n">
-        <v>201.4432424942527</v>
+        <v>48.54071989031432</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>40.54309674548279</v>
+        <v>40.5430967454828</v>
       </c>
       <c r="J20" t="n">
         <v>135.8936959438316</v>
@@ -36126,16 +36126,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L20" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M20" t="n">
-        <v>304.5782677142244</v>
+        <v>304.5782677142245</v>
       </c>
       <c r="N20" t="n">
         <v>310.263979544495</v>
       </c>
       <c r="O20" t="n">
-        <v>290.7846091941267</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P20" t="n">
         <v>242.5148933372037</v>
@@ -36144,7 +36144,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.70842162451763</v>
+        <v>24.98434951728939</v>
       </c>
       <c r="J21" t="n">
-        <v>77.84856632851179</v>
+        <v>372.9015890250685</v>
       </c>
       <c r="K21" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L21" t="n">
-        <v>397.570789456799</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M21" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N21" t="n">
         <v>249.701055327926</v>
       </c>
       <c r="O21" t="n">
-        <v>224.7804939583456</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P21" t="n">
-        <v>177.2328065671138</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.2816301099974</v>
+        <v>110.2816301099975</v>
       </c>
       <c r="R21" t="n">
-        <v>147.5520839324576</v>
+        <v>41.03137657396691</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13368351329787</v>
+        <v>119.8424882084705</v>
       </c>
       <c r="K22" t="n">
         <v>330.323566016896</v>
       </c>
       <c r="L22" t="n">
-        <v>107.9762854350439</v>
+        <v>459.4109931665934</v>
       </c>
       <c r="M22" t="n">
-        <v>371.085704483431</v>
+        <v>114.3806727805234</v>
       </c>
       <c r="N22" t="n">
-        <v>515.0041588650723</v>
+        <v>112.9507014490317</v>
       </c>
       <c r="O22" t="n">
-        <v>100.9940352484525</v>
+        <v>482.5115345446175</v>
       </c>
       <c r="P22" t="n">
         <v>399.2043436702971</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.4432424942527</v>
+        <v>48.54071989031432</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>40.54309674548279</v>
+        <v>40.5430967454828</v>
       </c>
       <c r="J23" t="n">
         <v>135.8936959438316</v>
@@ -36363,16 +36363,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L23" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M23" t="n">
-        <v>304.5782677142244</v>
+        <v>304.5782677142245</v>
       </c>
       <c r="N23" t="n">
         <v>310.263979544495</v>
       </c>
       <c r="O23" t="n">
-        <v>290.7846091941267</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P23" t="n">
         <v>242.5148933372037</v>
@@ -36381,7 +36381,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.70842162451763</v>
+        <v>43.40266995220637</v>
       </c>
       <c r="J24" t="n">
-        <v>77.84856632851179</v>
+        <v>247.9625612316605</v>
       </c>
       <c r="K24" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L24" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M24" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N24" t="n">
-        <v>522.06463508405</v>
+        <v>249.701055327926</v>
       </c>
       <c r="O24" t="n">
-        <v>224.7804939583456</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P24" t="n">
-        <v>177.2328065671138</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q24" t="n">
-        <v>138.2470009432023</v>
+        <v>110.2816301099975</v>
       </c>
       <c r="R24" t="n">
-        <v>41.0313765739669</v>
+        <v>147.5520839324576</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>119.8424882084705</v>
       </c>
       <c r="K25" t="n">
-        <v>253.5383533250428</v>
+        <v>80.54315277040908</v>
       </c>
       <c r="L25" t="n">
         <v>107.9762854350439</v>
       </c>
       <c r="M25" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="N25" t="n">
         <v>515.0041588650723</v>
       </c>
       <c r="O25" t="n">
-        <v>100.9940352484525</v>
+        <v>482.5115345446175</v>
       </c>
       <c r="P25" t="n">
-        <v>399.2043436702971</v>
+        <v>83.28898551544096</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.54071989031431</v>
+        <v>155.9337793036396</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>40.54309674548279</v>
+        <v>40.5430967454828</v>
       </c>
       <c r="J26" t="n">
         <v>135.8936959438316</v>
@@ -36600,16 +36600,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L26" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M26" t="n">
-        <v>304.5782677142244</v>
+        <v>304.5782677142245</v>
       </c>
       <c r="N26" t="n">
         <v>310.263979544495</v>
       </c>
       <c r="O26" t="n">
-        <v>290.7846091941267</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P26" t="n">
         <v>242.5148933372037</v>
@@ -36618,7 +36618,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>43.40266995220635</v>
+        <v>19.70842162451764</v>
       </c>
       <c r="J27" t="n">
-        <v>247.9625612316612</v>
+        <v>372.9015890250685</v>
       </c>
       <c r="K27" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L27" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M27" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N27" t="n">
         <v>249.701055327926</v>
       </c>
       <c r="O27" t="n">
-        <v>224.7804939583456</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2328065671138</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.2816301099974</v>
+        <v>110.2816301099975</v>
       </c>
       <c r="R27" t="n">
-        <v>147.5520839324576</v>
+        <v>46.30730446673844</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8424882084705</v>
+        <v>74.33302501785722</v>
       </c>
       <c r="K28" t="n">
-        <v>126.8022937284657</v>
+        <v>80.54315277040908</v>
       </c>
       <c r="L28" t="n">
         <v>107.9762854350439</v>
       </c>
       <c r="M28" t="n">
-        <v>114.3806727805233</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="N28" t="n">
         <v>515.0041588650723</v>
       </c>
       <c r="O28" t="n">
-        <v>482.5115345446174</v>
+        <v>482.5115345446175</v>
       </c>
       <c r="P28" t="n">
-        <v>399.2043436702971</v>
+        <v>83.28898551544096</v>
       </c>
       <c r="Q28" t="n">
         <v>201.4432424942527</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40.54309674548279</v>
+        <v>40.5430967454828</v>
       </c>
       <c r="J29" t="n">
         <v>135.8936959438316</v>
@@ -36837,16 +36837,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L29" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M29" t="n">
-        <v>304.5782677142244</v>
+        <v>304.5782677142245</v>
       </c>
       <c r="N29" t="n">
         <v>310.263979544495</v>
       </c>
       <c r="O29" t="n">
-        <v>290.7846091941267</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P29" t="n">
         <v>242.5148933372037</v>
@@ -36855,7 +36855,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.70842162451763</v>
+        <v>43.40266995220637</v>
       </c>
       <c r="J30" t="n">
-        <v>77.84856632851179</v>
+        <v>77.84856632851182</v>
       </c>
       <c r="K30" t="n">
-        <v>145.8840428449616</v>
+        <v>315.9980377481104</v>
       </c>
       <c r="L30" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M30" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N30" t="n">
         <v>249.701055327926</v>
       </c>
       <c r="O30" t="n">
-        <v>224.7804939583456</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P30" t="n">
-        <v>477.5617571564426</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.2816301099974</v>
+        <v>110.2816301099975</v>
       </c>
       <c r="R30" t="n">
-        <v>41.0313765739669</v>
+        <v>147.5520839324576</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8424882084705</v>
+        <v>41.13368351329788</v>
       </c>
       <c r="K31" t="n">
-        <v>80.54315277040907</v>
+        <v>80.54315277040908</v>
       </c>
       <c r="L31" t="n">
-        <v>107.9762854350439</v>
+        <v>294.0781495435416</v>
       </c>
       <c r="M31" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="N31" t="n">
         <v>515.0041588650723</v>
       </c>
       <c r="O31" t="n">
-        <v>121.0867131991478</v>
+        <v>482.5115345446175</v>
       </c>
       <c r="P31" t="n">
-        <v>399.2043436702971</v>
+        <v>83.28898551544096</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.4432424942527</v>
+        <v>48.54071989031432</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>40.54309674548279</v>
+        <v>40.5430967454828</v>
       </c>
       <c r="J32" t="n">
         <v>135.8936959438316</v>
@@ -37074,16 +37074,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L32" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M32" t="n">
-        <v>304.5782677142244</v>
+        <v>304.5782677142245</v>
       </c>
       <c r="N32" t="n">
         <v>310.263979544495</v>
       </c>
       <c r="O32" t="n">
-        <v>290.7846091941267</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P32" t="n">
         <v>242.5148933372037</v>
@@ -37092,7 +37092,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.70842162451763</v>
+        <v>19.70842162451764</v>
       </c>
       <c r="J33" t="n">
-        <v>77.84856632851179</v>
+        <v>372.9015890250685</v>
       </c>
       <c r="K33" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L33" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M33" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N33" t="n">
         <v>249.701055327926</v>
       </c>
       <c r="O33" t="n">
-        <v>224.7804939583456</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P33" t="n">
-        <v>371.0410497979518</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.2816301099974</v>
+        <v>110.2816301099975</v>
       </c>
       <c r="R33" t="n">
-        <v>147.5520839324576</v>
+        <v>46.30730446673844</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>119.8424882084705</v>
       </c>
       <c r="K34" t="n">
-        <v>80.54315277040907</v>
+        <v>330.323566016896</v>
       </c>
       <c r="L34" t="n">
-        <v>154.235426393101</v>
+        <v>107.9762854350439</v>
       </c>
       <c r="M34" t="n">
-        <v>114.3806727805233</v>
+        <v>522.06463508405</v>
       </c>
       <c r="N34" t="n">
-        <v>515.0041588650723</v>
+        <v>112.9507014490317</v>
       </c>
       <c r="O34" t="n">
-        <v>482.5115345446174</v>
+        <v>273.3597573687015</v>
       </c>
       <c r="P34" t="n">
         <v>399.2043436702971</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>40.54309674548279</v>
+        <v>40.5430967454828</v>
       </c>
       <c r="J35" t="n">
         <v>135.8936959438316</v>
@@ -37311,16 +37311,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L35" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M35" t="n">
-        <v>304.5782677142244</v>
+        <v>304.5782677142245</v>
       </c>
       <c r="N35" t="n">
         <v>310.263979544495</v>
       </c>
       <c r="O35" t="n">
-        <v>290.7846091941267</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P35" t="n">
         <v>242.5148933372037</v>
@@ -37329,7 +37329,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.70842162451763</v>
+        <v>43.40266995220637</v>
       </c>
       <c r="J36" t="n">
-        <v>77.84856632851179</v>
+        <v>247.9625612316605</v>
       </c>
       <c r="K36" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L36" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M36" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N36" t="n">
         <v>249.701055327926</v>
       </c>
       <c r="O36" t="n">
-        <v>522.06463508405</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P36" t="n">
-        <v>177.2328065671138</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.3264395736219</v>
+        <v>110.2816301099975</v>
       </c>
       <c r="R36" t="n">
-        <v>41.0313765739669</v>
+        <v>147.5520839324576</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13368351329787</v>
+        <v>41.13368351329788</v>
       </c>
       <c r="K37" t="n">
-        <v>80.54315277040907</v>
+        <v>80.54315277040908</v>
       </c>
       <c r="L37" t="n">
-        <v>107.9762854350439</v>
+        <v>294.0781495435416</v>
       </c>
       <c r="M37" t="n">
-        <v>239.348618433753</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="N37" t="n">
         <v>515.0041588650723</v>
       </c>
       <c r="O37" t="n">
-        <v>482.5115345446174</v>
+        <v>482.5115345446175</v>
       </c>
       <c r="P37" t="n">
-        <v>399.2043436702971</v>
+        <v>83.28898551544096</v>
       </c>
       <c r="Q37" t="n">
-        <v>201.4432424942527</v>
+        <v>48.54071989031432</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>40.54309674548279</v>
+        <v>40.5430967454828</v>
       </c>
       <c r="J38" t="n">
         <v>135.8936959438316</v>
@@ -37548,16 +37548,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L38" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M38" t="n">
-        <v>304.5782677142244</v>
+        <v>304.5782677142245</v>
       </c>
       <c r="N38" t="n">
         <v>310.263979544495</v>
       </c>
       <c r="O38" t="n">
-        <v>290.7846091941267</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P38" t="n">
         <v>242.5148933372037</v>
@@ -37566,7 +37566,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.70842162451763</v>
+        <v>43.40266995220637</v>
       </c>
       <c r="J39" t="n">
-        <v>80.89337579213598</v>
+        <v>77.84856632851182</v>
       </c>
       <c r="K39" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L39" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M39" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N39" t="n">
         <v>249.701055327926</v>
       </c>
       <c r="O39" t="n">
-        <v>522.06463508405</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P39" t="n">
-        <v>177.2328065671138</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.2816301099974</v>
+        <v>280.3956250131462</v>
       </c>
       <c r="R39" t="n">
-        <v>41.0313765739669</v>
+        <v>147.5520839324576</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13368351329787</v>
+        <v>74.33302501785722</v>
       </c>
       <c r="K40" t="n">
-        <v>330.323566016896</v>
+        <v>80.54315277040908</v>
       </c>
       <c r="L40" t="n">
         <v>107.9762854350439</v>
       </c>
       <c r="M40" t="n">
-        <v>114.3806727805233</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="N40" t="n">
         <v>515.0041588650723</v>
       </c>
       <c r="O40" t="n">
-        <v>482.5115345446174</v>
+        <v>482.5115345446175</v>
       </c>
       <c r="P40" t="n">
-        <v>399.2043436702971</v>
+        <v>83.28898551544096</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.63077490099549</v>
+        <v>201.4432424942527</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.54309674548279</v>
+        <v>40.5430967454828</v>
       </c>
       <c r="J41" t="n">
         <v>135.8936959438316</v>
@@ -37785,16 +37785,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L41" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M41" t="n">
-        <v>304.5782677142244</v>
+        <v>304.5782677142245</v>
       </c>
       <c r="N41" t="n">
         <v>310.263979544495</v>
       </c>
       <c r="O41" t="n">
-        <v>290.7846091941267</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P41" t="n">
         <v>242.5148933372037</v>
@@ -37803,7 +37803,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.70842162451763</v>
+        <v>43.40266995220637</v>
       </c>
       <c r="J42" t="n">
-        <v>77.84856632851179</v>
+        <v>77.84856632851182</v>
       </c>
       <c r="K42" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L42" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M42" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N42" t="n">
         <v>249.701055327926</v>
       </c>
       <c r="O42" t="n">
-        <v>224.7804939583456</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P42" t="n">
-        <v>177.2328065671138</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.6105806993265</v>
+        <v>280.3956250131462</v>
       </c>
       <c r="R42" t="n">
-        <v>41.0313765739669</v>
+        <v>147.5520839324576</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13368351329787</v>
+        <v>41.13368351329788</v>
       </c>
       <c r="K43" t="n">
-        <v>179.344635416277</v>
+        <v>80.54315277040908</v>
       </c>
       <c r="L43" t="n">
-        <v>107.9762854350439</v>
+        <v>294.0781495435416</v>
       </c>
       <c r="M43" t="n">
-        <v>522.06463508405</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="N43" t="n">
         <v>515.0041588650723</v>
       </c>
       <c r="O43" t="n">
-        <v>100.9940352484525</v>
+        <v>482.5115345446175</v>
       </c>
       <c r="P43" t="n">
-        <v>399.2043436702971</v>
+        <v>83.28898551544096</v>
       </c>
       <c r="Q43" t="n">
-        <v>201.4432424942527</v>
+        <v>48.54071989031432</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.54309674548338</v>
+        <v>40.5430967454828</v>
       </c>
       <c r="J44" t="n">
         <v>135.8936959438316</v>
@@ -38022,16 +38022,16 @@
         <v>211.9977155495238</v>
       </c>
       <c r="L44" t="n">
-        <v>269.0590196351883</v>
+        <v>269.0590196351884</v>
       </c>
       <c r="M44" t="n">
-        <v>304.5782677142244</v>
+        <v>304.5782677142247</v>
       </c>
       <c r="N44" t="n">
         <v>310.263979544495</v>
       </c>
       <c r="O44" t="n">
-        <v>290.7846091941267</v>
+        <v>290.7846091941269</v>
       </c>
       <c r="P44" t="n">
         <v>242.5148933372037</v>
@@ -38040,7 +38040,7 @@
         <v>174.2114423662389</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31829969642797</v>
+        <v>87.318299696428</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.75323108814182</v>
+        <v>43.40266995220637</v>
       </c>
       <c r="J45" t="n">
-        <v>77.84856632851179</v>
+        <v>77.84856632851182</v>
       </c>
       <c r="K45" t="n">
-        <v>145.8840428449616</v>
+        <v>145.8840428449617</v>
       </c>
       <c r="L45" t="n">
-        <v>203.7625462259609</v>
+        <v>203.762546225961</v>
       </c>
       <c r="M45" t="n">
-        <v>240.9585443024342</v>
+        <v>240.9585443024343</v>
       </c>
       <c r="N45" t="n">
         <v>249.701055327926</v>
       </c>
       <c r="O45" t="n">
-        <v>522.06463508405</v>
+        <v>224.7804939583457</v>
       </c>
       <c r="P45" t="n">
-        <v>177.2328065671138</v>
+        <v>177.2328065671139</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.2816301099974</v>
+        <v>280.3956250131462</v>
       </c>
       <c r="R45" t="n">
-        <v>41.0313765739669</v>
+        <v>147.5520839324576</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>91.08639433278228</v>
+        <v>41.13368351329788</v>
       </c>
       <c r="K46" t="n">
-        <v>330.323566016896</v>
+        <v>80.54315277040908</v>
       </c>
       <c r="L46" t="n">
         <v>488.1670870422813</v>
       </c>
       <c r="M46" t="n">
-        <v>114.3806727805233</v>
+        <v>522.0646350840501</v>
       </c>
       <c r="N46" t="n">
-        <v>112.9507014490317</v>
+        <v>515.0041588650723</v>
       </c>
       <c r="O46" t="n">
-        <v>482.5115345446174</v>
+        <v>288.4225970458778</v>
       </c>
       <c r="P46" t="n">
-        <v>399.2043436702971</v>
+        <v>83.28898551544096</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.54071989031431</v>
+        <v>48.54071989031432</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
